--- a/仕様書/カラマリテープ_仕様書_タイトル.xlsx
+++ b/仕様書/カラマリテープ_仕様書_タイトル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\松田 優志\日本ゲーム大賞 アマチュア部門\JGA_2020_PROJECT\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C21856F-9C30-4C17-87F6-BD7CFCAA29E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA88B77-93CA-4E73-B67B-9BAD81DB414A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="161">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -1437,6 +1437,42 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイトル画面①～⑤の画像を追加</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルフローの詳細の画像を追加</t>
+    <rPh sb="8" eb="10">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①～⑦のレイアウトイメージ画像を追加</t>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2468,6 +2504,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2485,18 +2533,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2690,16 +2726,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>118745</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2714,8 +2750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="1704975"/>
-          <a:ext cx="1306830" cy="354330"/>
+          <a:off x="6156960" y="1696085"/>
+          <a:ext cx="1286510" cy="363220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3258,16 +3294,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1904</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>146684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>43815</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>144145</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3282,8 +3318,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6610350" y="3602354"/>
-          <a:ext cx="882015" cy="2185036"/>
+          <a:off x="6957060" y="3651884"/>
+          <a:ext cx="868045" cy="2233296"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -5449,16 +5485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>61595</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5473,68 +5509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4208145" y="23446740"/>
-          <a:ext cx="535305" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="矢印: 右 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05302D9-D223-4530-96D7-8EC5ED597354}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6372225" y="23412450"/>
-          <a:ext cx="533400" cy="476250"/>
+          <a:off x="5297170" y="23434040"/>
+          <a:ext cx="525145" cy="478790"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5570,22 +5546,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="矢印: 右 90">
+        <xdr:cNvPr id="88" name="矢印: 右 87">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8ACF34-2413-4202-AD10-838A8A4749F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E05302D9-D223-4530-96D7-8EC5ED597354}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5593,8 +5569,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="23450550"/>
-          <a:ext cx="535305" cy="476250"/>
+          <a:off x="4137660" y="24481790"/>
+          <a:ext cx="523875" cy="491490"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5629,23 +5605,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="矢印: 右 91">
+        <xdr:cNvPr id="91" name="矢印: 右 90">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C2655-1CD6-4C4E-A042-18CF85666D25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8ACF34-2413-4202-AD10-838A8A4749F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5653,8 +5629,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6368415" y="23408640"/>
-          <a:ext cx="535305" cy="476250"/>
+          <a:off x="5300980" y="25566370"/>
+          <a:ext cx="534035" cy="494030"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5690,22 +5666,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="矢印: 右 92">
+        <xdr:cNvPr id="92" name="矢印: 右 91">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAA2A5A-C4F8-47D6-9847-FB38868291BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C2655-1CD6-4C4E-A042-18CF85666D25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5713,8 +5689,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="25507950"/>
-          <a:ext cx="535305" cy="476250"/>
+          <a:off x="4159250" y="26584910"/>
+          <a:ext cx="517525" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5749,23 +5725,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>105410</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>156845</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="矢印: 右 93">
+        <xdr:cNvPr id="93" name="矢印: 右 92">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD045AA-504C-4B06-B858-BFE6134E7B11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAA2A5A-C4F8-47D6-9847-FB38868291BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5773,8 +5749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6368415" y="25466040"/>
-          <a:ext cx="535305" cy="476250"/>
+          <a:off x="5386070" y="27730450"/>
+          <a:ext cx="531495" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5805,6 +5781,2826 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="矢印: 右 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD045AA-504C-4B06-B858-BFE6134E7B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4196080" y="28709620"/>
+          <a:ext cx="528955" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>73661</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>76982</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="グループ化 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2345CAE7-51DE-4C5D-9A1E-7C416A3AD799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6154421" y="2065020"/>
+          <a:ext cx="2563641" cy="1592580"/>
+          <a:chOff x="7696511" y="4622997"/>
+          <a:chExt cx="3961501" cy="2666252"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="79" name="図 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DD6D99-D150-4E97-AB17-F719D3BE54F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7696511" y="4622997"/>
+            <a:ext cx="3961501" cy="2666252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="80" name="図 79">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE34309-C28A-4E65-AF30-4E40280D53FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8836630" y="4870717"/>
+            <a:ext cx="1458696" cy="313177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="81" name="図 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1786FC2E-C8C6-4E54-95FB-0355BBB04AFB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8693852" y="6125185"/>
+            <a:ext cx="1891033" cy="184384"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>138431</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="グループ化 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F5EBFA-C4EA-4A71-B488-C1ACC28F3CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6216651" y="6273800"/>
+          <a:ext cx="2604769" cy="1737360"/>
+          <a:chOff x="7729220" y="10896600"/>
+          <a:chExt cx="3784237" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="83" name="図 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439D79D8-F24F-4102-A861-64BA6501C0F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7729220" y="10896600"/>
+            <a:ext cx="3784237" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="84" name="図 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954AD693-B1E8-4C24-ADC4-B87090C40943}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8879840" y="11153140"/>
+            <a:ext cx="1457721" cy="314296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="85" name="図 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4DED3E-B1A5-4BA7-A27E-1BDD636664C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9179560" y="12278361"/>
+            <a:ext cx="750570" cy="177452"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="86" name="図 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AF241A-F5AD-440A-8E95-08D894CCA3B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8990331" y="12621261"/>
+            <a:ext cx="1236979" cy="175258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="89" name="図 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A62CC3B6-A6C9-438B-8909-C1252C80F78A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9199880" y="12948922"/>
+            <a:ext cx="750570" cy="179063"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>92710</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>1269</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="グループ化 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9080430D-52D5-4119-974C-FD512E938EE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10017760" y="6278880"/>
+          <a:ext cx="2625089" cy="1751330"/>
+          <a:chOff x="7743190" y="23544530"/>
+          <a:chExt cx="3777887" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="95" name="図 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E74C721-05DE-4B5D-A25B-3E0BB8753BD1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7743190" y="23544530"/>
+            <a:ext cx="3777887" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="図 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D622EA54-8B6D-49A2-8453-B3D4556B805C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8890000" y="23795990"/>
+            <a:ext cx="1462801" cy="319376"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="97" name="図 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B982CC41-7451-40D1-B6D3-2317BAF6E815}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8876030" y="24506278"/>
+            <a:ext cx="1545091" cy="167281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="98" name="図 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADBB751-6199-40FD-BE39-992C85C7CA3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9417709" y="25019001"/>
+            <a:ext cx="332760" cy="181610"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="99" name="図 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2493B964-206D-4676-B5CA-75ECCD240DC8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9372600" y="25459691"/>
+            <a:ext cx="494261" cy="189230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>92710</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>8889</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="グループ化 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA1EB1C3-F283-489E-B516-D4CDEC694A64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10337800" y="9306560"/>
+          <a:ext cx="2633979" cy="1762760"/>
+          <a:chOff x="7708900" y="29853890"/>
+          <a:chExt cx="3788047" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="101" name="図 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A671EC0-DB07-4865-87E9-B1EF00540F23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7708900" y="29853890"/>
+            <a:ext cx="3788047" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="102" name="図 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04FCDA53-4492-4D0D-A0F5-BAF02D155668}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8864214" y="30104080"/>
+            <a:ext cx="1453422" cy="314296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="103" name="図 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C36A06-1AE1-4457-AFB5-DE32920B4D1A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9160023" y="31231841"/>
+            <a:ext cx="749048" cy="177452"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="104" name="図 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7580B69F-CB52-4D9B-8CD1-243B360BFB30}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8973398" y="31572201"/>
+            <a:ext cx="1236564" cy="175258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="105" name="図 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444D7C09-19F4-4A0F-9006-33A3344E9962}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9184146" y="31903672"/>
+            <a:ext cx="747778" cy="179063"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="106" name="図 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB5B5D6-26A4-4A62-AEB1-58516B17538D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10143490" y="29870400"/>
+            <a:ext cx="1319530" cy="195580"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24131</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>100331</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="グループ化 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0B7DDF1-672C-4002-B26F-BC48A4D446C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3382011" y="8427720"/>
+          <a:ext cx="2636520" cy="1752600"/>
+          <a:chOff x="7744460" y="36167060"/>
+          <a:chExt cx="3753757" cy="2563512"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="108" name="図 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F575804-E21D-4B40-BA62-01428D0D5C01}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7744460" y="36167060"/>
+            <a:ext cx="3753757" cy="2563512"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="109" name="図 108">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{837F7B3B-28AA-484E-9C11-53818AED2AF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8876530" y="36423470"/>
+            <a:ext cx="1465621" cy="311602"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="110" name="図 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7794D3-30F2-4185-9FBD-B99F49140F22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8849656" y="37305685"/>
+            <a:ext cx="1491764" cy="185721"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="111" name="図 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342A7787-42B3-4618-8418-387551147300}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9416860" y="37767736"/>
+            <a:ext cx="328271" cy="190407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="112" name="図 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DCAF7ED-5881-46CA-A714-8A6EAEF153C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9364232" y="38215824"/>
+            <a:ext cx="503400" cy="190407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>158751</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="113" name="グループ化 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2B01FB-7C1A-47EC-B5CC-7C8A13549F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3360421" y="21511260"/>
+          <a:ext cx="1737360" cy="1150620"/>
+          <a:chOff x="7696511" y="4622997"/>
+          <a:chExt cx="3961501" cy="2666252"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="114" name="図 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEE9DFD-E3B1-4C40-A27F-830B7374B163}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7696511" y="4622997"/>
+            <a:ext cx="3961501" cy="2666252"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="115" name="図 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5D324F-9A37-4424-9E5F-A3B843F75EAA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8836630" y="4870717"/>
+            <a:ext cx="1458696" cy="313177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="116" name="図 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E83C58E0-FC34-461A-BD76-B3881F1DF39B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8693852" y="6125185"/>
+            <a:ext cx="1891033" cy="184384"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="117" name="グループ化 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95A2805-7248-42C8-9474-8062DE10589E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5938520" y="21525230"/>
+          <a:ext cx="1742439" cy="1168400"/>
+          <a:chOff x="7729220" y="10896600"/>
+          <a:chExt cx="3784237" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="118" name="図 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56379902-38AF-4BF0-9AD5-C91BBE3848CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7729220" y="10896600"/>
+            <a:ext cx="3784237" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="119" name="図 118">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0743D37-76C2-44C6-976C-EAA82616D322}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8879840" y="11153140"/>
+            <a:ext cx="1457721" cy="314296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="120" name="図 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F3B8D0-764D-49DB-9EED-55E53870A4AC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9179560" y="12278361"/>
+            <a:ext cx="750570" cy="177452"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="121" name="図 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D779C5-F4CB-4366-989B-DD0898887733}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8990331" y="12621261"/>
+            <a:ext cx="1236979" cy="175258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="122" name="図 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736222BD-9DF2-4D1F-AC5C-CA34162C70B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9199880" y="12948922"/>
+            <a:ext cx="750570" cy="179063"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="125" name="グループ化 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3ADA4C-04D9-4280-B623-CC6FFF762164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3335021" y="23187660"/>
+          <a:ext cx="1564639" cy="957580"/>
+          <a:chOff x="7690391" y="10924873"/>
+          <a:chExt cx="3773035" cy="2560214"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="126" name="図 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A5CF84B-EC48-4175-B639-0729E078C6F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7690391" y="10924873"/>
+            <a:ext cx="3773035" cy="2560214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="127" name="図 126">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487DB036-5719-4FCC-92E7-4D56927D2734}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8836995" y="11175874"/>
+            <a:ext cx="1462202" cy="313737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="128" name="図 127">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E816D8E-6DE9-4E96-9488-57E58A428E35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9142682" y="12294021"/>
+            <a:ext cx="748337" cy="178406"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="129" name="図 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECE8B1D-E3F3-4F2F-9F11-75BB83A975CA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8944805" y="12642649"/>
+            <a:ext cx="1232853" cy="174946"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="130" name="図 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3527449-14B2-4CA9-ABB1-DDBC59AD5E67}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9154086" y="12972267"/>
+            <a:ext cx="749607" cy="180014"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>36831</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="137" name="グループ化 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7781A542-5711-4873-AE74-DCC9059058A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6117591" y="23182580"/>
+          <a:ext cx="1555749" cy="989330"/>
+          <a:chOff x="7743190" y="23544530"/>
+          <a:chExt cx="3777887" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="138" name="図 137">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C7AB1A-3C68-4A10-9D4A-F6FB31C4E7DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7743190" y="23544530"/>
+            <a:ext cx="3777887" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="139" name="図 138">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D365BD80-6A21-4906-BC86-5F2A2E6213E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8890000" y="23795990"/>
+            <a:ext cx="1462801" cy="319376"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="140" name="図 139">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9549D3A6-9D45-4DBC-8FE1-A7B440509F4D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8876030" y="24506278"/>
+            <a:ext cx="1545091" cy="167281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="141" name="図 140">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4A3DA4-BDC3-4B92-976B-F09A268075CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9417709" y="25019001"/>
+            <a:ext cx="332760" cy="181610"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="142" name="図 141">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183DE5D6-80EF-48BB-9021-7F1D03FB6480}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9372600" y="25459691"/>
+            <a:ext cx="494261" cy="189230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>68581</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="143" name="グループ化 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131DD6EB-554F-444B-9C4D-1DB6573ED678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4707891" y="24211280"/>
+          <a:ext cx="1593850" cy="965200"/>
+          <a:chOff x="7708900" y="29853890"/>
+          <a:chExt cx="3788047" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="144" name="図 143">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E159A3-14CE-4A95-B192-A839D96D8CCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7708900" y="29853890"/>
+            <a:ext cx="3788047" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="145" name="図 144">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1737D135-0062-4DF9-A042-FB317214DDAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8864214" y="30104080"/>
+            <a:ext cx="1453422" cy="314296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="146" name="図 145">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5CDF7A-8DF3-4974-8CD5-426F2DB6EC7B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9160023" y="31231841"/>
+            <a:ext cx="749048" cy="177452"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="147" name="図 146">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C88474-DEEB-42FC-A6FA-F42C8E0EE7C7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8973398" y="31572201"/>
+            <a:ext cx="1236564" cy="175258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="148" name="図 147">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBEDC7B-9561-4BC7-A010-528DF4E8897E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9184146" y="31903672"/>
+            <a:ext cx="747778" cy="179063"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="149" name="図 148">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC9F59E-2F47-42F9-B95A-F368A4E0082A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10143490" y="29870400"/>
+            <a:ext cx="1319530" cy="195580"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>91439</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>172720</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="150" name="グループ化 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C09974-8499-4583-A224-DAB201B81F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3323590" y="25333960"/>
+          <a:ext cx="1570989" cy="956310"/>
+          <a:chOff x="7690391" y="10924873"/>
+          <a:chExt cx="3773035" cy="2560214"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="151" name="図 150">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9388FB6-885F-443E-8089-22689E64E47C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7690391" y="10924873"/>
+            <a:ext cx="3773035" cy="2560214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="152" name="図 151">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFCB7814-1F62-4BE3-9F87-D797D130AFB8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8836995" y="11175874"/>
+            <a:ext cx="1462202" cy="313737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="153" name="図 152">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4AEB33E-4761-4920-83BD-87B8DE298D53}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9142682" y="12294021"/>
+            <a:ext cx="748337" cy="178406"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="154" name="図 153">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5845EF7-4AEB-4CFE-894A-7471F68D5B4F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8944805" y="12642649"/>
+            <a:ext cx="1232853" cy="174946"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="155" name="図 154">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C03669-7467-41AD-BE5A-12605AF0C283}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9154086" y="12972267"/>
+            <a:ext cx="749607" cy="180014"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>92711</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>46991</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="156" name="グループ化 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{950938ED-D0BF-45B8-9A72-C846BA5F5467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6177281" y="25299670"/>
+          <a:ext cx="1551940" cy="972820"/>
+          <a:chOff x="7744460" y="36167060"/>
+          <a:chExt cx="3753757" cy="2563512"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="157" name="図 156">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2939B549-776F-492A-AA30-B429BFF9676D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7744460" y="36167060"/>
+            <a:ext cx="3753757" cy="2563512"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="158" name="図 157">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989F9FED-C241-4931-AD57-97E11141532E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8876530" y="36423470"/>
+            <a:ext cx="1465621" cy="311602"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="159" name="図 158">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53256305-9EB8-4D82-BE19-BDD969A599A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8849656" y="37305685"/>
+            <a:ext cx="1491764" cy="185721"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="160" name="図 159">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B26B76-BC57-4B9F-B135-40FB4493E308}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9416860" y="37767736"/>
+            <a:ext cx="328271" cy="190407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="161" name="図 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BEABB70-4F14-43F3-8121-06E524FC412E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9364232" y="38215824"/>
+            <a:ext cx="503400" cy="190407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>116842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053EDFD4-FE64-4E0A-9208-1BB05E3EF909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3389631" y="27457402"/>
+          <a:ext cx="1563369" cy="949958"/>
+          <a:chOff x="640081" y="27691082"/>
+          <a:chExt cx="3778115" cy="2552594"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="163" name="図 162">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01ED147E-BE5A-4D14-9D1B-930993E3B83B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="640081" y="27691082"/>
+            <a:ext cx="3778115" cy="2552594"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="164" name="図 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5308834-E92F-444E-8B31-20699B71B743}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1781989" y="27941162"/>
+            <a:ext cx="1466838" cy="313383"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="165" name="図 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6173299D-A628-4304-86EC-342741B59B0C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2092929" y="29055507"/>
+            <a:ext cx="747490" cy="179475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="166" name="図 165">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97416A2-A8B2-42C3-AAA6-5962CE94046E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1896210" y="29403742"/>
+            <a:ext cx="1231010" cy="174749"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="167" name="図 166">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E65D689-181B-47DE-887C-F77B996E1C08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2105610" y="29735528"/>
+            <a:ext cx="750031" cy="181081"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>124460</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="168" name="図 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F9B540-009A-45EC-8EC2-88E3BFC0346D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4765040" y="26324560"/>
+          <a:ext cx="1559560" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="169" name="図 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA24B13-E2F6-4600-9275-F300A8E014CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6207760" y="27448510"/>
+          <a:ext cx="1572260" cy="980440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9244,6 +12040,1121 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>22496</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>140243</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="108" name="グループ化 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F848110-D02F-45BC-9C35-47760181EA5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7700916" y="4610331"/>
+          <a:ext cx="3798207" cy="2568592"/>
+          <a:chOff x="7696511" y="4622997"/>
+          <a:chExt cx="3803294" cy="2559772"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56ACDD73-0590-4F21-93E7-4A882E9A0A24}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7696511" y="4622997"/>
+            <a:ext cx="3803294" cy="2559772"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="図 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15F5979-963D-49C3-9415-FCF1EF7C7169}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8836630" y="4870717"/>
+            <a:ext cx="1458696" cy="313177"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="図 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC284633-6E94-4D2F-B37E-2321AD1CCEBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8693852" y="6125185"/>
+            <a:ext cx="1891033" cy="184384"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>9431</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>58753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>102006</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165327</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="113" name="グループ化 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6F718F4-D3A5-471B-9C9D-37AD485879F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7691661" y="10928683"/>
+          <a:ext cx="3769225" cy="2558944"/>
+          <a:chOff x="7690391" y="10924873"/>
+          <a:chExt cx="3773035" cy="2560214"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="58" name="図 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3FFDB8-268D-493C-A5DB-DF66CFF10863}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7690391" y="10924873"/>
+            <a:ext cx="3773035" cy="2560214"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="79" name="図 78">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D151A2-6990-41CB-A693-E70145ECB979}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8836995" y="11175874"/>
+            <a:ext cx="1462202" cy="313737"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="図 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52AD365-F521-4496-A93D-2280F899DF64}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9142682" y="12294021"/>
+            <a:ext cx="748337" cy="178406"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="図 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC17A5C3-ED4F-4873-85DB-D4CCE0D4B91A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8944805" y="12642649"/>
+            <a:ext cx="1232853" cy="174946"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="図 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24775D6-3DF5-45A9-9FF1-F9CA7AAF4192}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9154086" y="12972267"/>
+            <a:ext cx="749607" cy="180014"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>59690</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>907</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>160672</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="110" name="グループ化 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B956C7C-3081-41E5-97AB-4A1A81ED0D17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7744460" y="23535640"/>
+          <a:ext cx="3777887" cy="2564782"/>
+          <a:chOff x="7743190" y="23544530"/>
+          <a:chExt cx="3777887" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="86" name="図 85">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2023D3CD-A4AC-43F9-AF8B-51B187D0D8AA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7743190" y="23544530"/>
+            <a:ext cx="3777887" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="87" name="図 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99523812-5F43-436D-B497-CF4ABB5352EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8890000" y="23795990"/>
+            <a:ext cx="1462801" cy="319376"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="図 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147D178C-1C2F-45EF-AC4B-3C1AB453A2B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8876030" y="24506278"/>
+            <a:ext cx="1545091" cy="167281"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="図 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2894F620-E533-4C6C-BA0B-E38C53071547}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9417709" y="25019001"/>
+            <a:ext cx="332760" cy="181610"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="図 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0D1C67-4C69-4818-9537-76262CC750FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9372600" y="25459691"/>
+            <a:ext cx="494261" cy="189230"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>159657</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>160672</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="グループ化 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05CAA705-4F5E-49B7-93D5-197F92CAAA55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7727950" y="29841190"/>
+          <a:ext cx="3794397" cy="2568592"/>
+          <a:chOff x="7708900" y="29853890"/>
+          <a:chExt cx="3788047" cy="2566052"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="89" name="図 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7D2813-A6EF-470C-9B6C-C9CB756E0CA6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7708900" y="29853890"/>
+            <a:ext cx="3788047" cy="2566052"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="90" name="図 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A176F209-2450-4FBF-9086-CA9A32C4C2F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8864214" y="30104080"/>
+            <a:ext cx="1453422" cy="314296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="91" name="図 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879DABBA-D969-4C06-9C1A-B69A4C74976E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9160023" y="31231841"/>
+            <a:ext cx="749048" cy="177452"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="92" name="図 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542334C6-3E4B-48B2-AB4C-CA49923CD8E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8973398" y="31572201"/>
+            <a:ext cx="1236564" cy="175258"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="93" name="図 92">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA1B9CC-A3EF-4027-8283-DCBD4F9B0E72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9184146" y="31903672"/>
+            <a:ext cx="747778" cy="179063"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="29" name="図 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BC19E97-1FF5-4627-B01A-AB358D3747A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10143490" y="29870400"/>
+            <a:ext cx="1319530" cy="195580"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>105047</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>159402</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="グループ化 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791CC215-F0E0-435C-9240-1FF602D9FC27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7711440" y="36149280"/>
+          <a:ext cx="3753757" cy="2568592"/>
+          <a:chOff x="7744460" y="36167060"/>
+          <a:chExt cx="3753757" cy="2563512"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="94" name="図 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3498B1-916A-41D9-95A9-8C622217B8DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7744460" y="36167060"/>
+            <a:ext cx="3753757" cy="2563512"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="95" name="図 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C300824A-FB0B-40EB-AF96-CEA3F9E20EF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8876530" y="36423470"/>
+            <a:ext cx="1465621" cy="311602"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="56" name="図 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CE83D2-F9BE-4A10-BDBF-13C494603F47}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8849656" y="37305685"/>
+            <a:ext cx="1491764" cy="185721"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="96" name="図 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A51C26E-792E-4DD2-B630-2CB61906D35E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9416860" y="37767736"/>
+            <a:ext cx="328271" cy="190407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="97" name="図 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32C8131-4122-4FD8-AF50-98D1254BAC7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9364232" y="38215824"/>
+            <a:ext cx="503400" cy="190407"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>24130</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>97838</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="図 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55036D6A-D33C-423A-BC03-44FF4B4F8BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705090" y="17219930"/>
+          <a:ext cx="3671570" cy="2507028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>27940</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>256</xdr:row>
+      <xdr:rowOff>128232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="図 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F28B68-93FC-4B74-AFD3-7FC362A34EE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708900" y="42472610"/>
+          <a:ext cx="3736340" cy="2522182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10459,7 +14370,9 @@
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
       <c r="G18" s="16"/>
-      <c r="I18" s="9"/>
+      <c r="I18" s="13">
+        <v>44292</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -10470,7 +14383,9 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="8"/>
+      <c r="T18" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -10478,7 +14393,9 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
+      <c r="AB18" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="AC18" s="8"/>
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
@@ -10493,7 +14410,9 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="8"/>
       <c r="AP18" s="8"/>
-      <c r="AQ18" s="8"/>
+      <c r="AQ18" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="AR18" s="8"/>
       <c r="AS18" s="8"/>
       <c r="AT18" s="8"/>
@@ -10533,7 +14452,9 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="13">
+        <v>44292</v>
+      </c>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
@@ -10544,7 +14465,9 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -10552,7 +14475,9 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
+      <c r="AB19" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="AC19" s="8"/>
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
@@ -10567,7 +14492,9 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="8"/>
       <c r="AP19" s="8"/>
-      <c r="AQ19" s="8"/>
+      <c r="AQ19" s="8" t="s">
+        <v>159</v>
+      </c>
       <c r="AR19" s="8"/>
       <c r="AS19" s="8"/>
       <c r="AT19" s="8"/>
@@ -10607,7 +14534,9 @@
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="13">
+        <v>44292</v>
+      </c>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
@@ -10618,7 +14547,9 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -10626,7 +14557,9 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
       <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
+      <c r="AB20" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="AC20" s="8"/>
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
@@ -10641,7 +14574,9 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="8"/>
       <c r="AP20" s="8"/>
-      <c r="AQ20" s="8"/>
+      <c r="AQ20" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="AR20" s="8"/>
       <c r="AS20" s="8"/>
       <c r="AT20" s="8"/>
@@ -11793,7 +15728,7 @@
   <dimension ref="A1:CD168"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G7"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -24336,7 +28271,7 @@
   <dimension ref="A1:FE78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G9"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -24938,82 +28873,82 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="33"/>
-      <c r="I11" s="91" t="s">
+      <c r="I11" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="92"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="92"/>
-      <c r="BC11" s="92"/>
-      <c r="BD11" s="92"/>
-      <c r="BE11" s="92"/>
-      <c r="BF11" s="92"/>
-      <c r="BG11" s="92"/>
-      <c r="BH11" s="92"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="92"/>
-      <c r="BK11" s="92"/>
-      <c r="BL11" s="92"/>
-      <c r="BM11" s="92"/>
-      <c r="BN11" s="92"/>
-      <c r="BO11" s="92"/>
-      <c r="BP11" s="92"/>
-      <c r="BQ11" s="92"/>
-      <c r="BR11" s="92"/>
-      <c r="BS11" s="92"/>
-      <c r="BT11" s="92"/>
-      <c r="BU11" s="92"/>
-      <c r="BV11" s="92"/>
-      <c r="BW11" s="92"/>
-      <c r="BX11" s="92"/>
-      <c r="BY11" s="92"/>
-      <c r="BZ11" s="92"/>
-      <c r="CA11" s="92"/>
-      <c r="CB11" s="92"/>
-      <c r="CC11" s="92"/>
-      <c r="CD11" s="93"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="96"/>
+      <c r="AG11" s="96"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96"/>
+      <c r="AR11" s="96"/>
+      <c r="AS11" s="96"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="96"/>
+      <c r="AV11" s="96"/>
+      <c r="AW11" s="96"/>
+      <c r="AX11" s="96"/>
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="96"/>
+      <c r="BA11" s="96"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="96"/>
+      <c r="BE11" s="96"/>
+      <c r="BF11" s="96"/>
+      <c r="BG11" s="96"/>
+      <c r="BH11" s="96"/>
+      <c r="BI11" s="96"/>
+      <c r="BJ11" s="96"/>
+      <c r="BK11" s="96"/>
+      <c r="BL11" s="96"/>
+      <c r="BM11" s="96"/>
+      <c r="BN11" s="96"/>
+      <c r="BO11" s="96"/>
+      <c r="BP11" s="96"/>
+      <c r="BQ11" s="96"/>
+      <c r="BR11" s="96"/>
+      <c r="BS11" s="96"/>
+      <c r="BT11" s="96"/>
+      <c r="BU11" s="96"/>
+      <c r="BV11" s="96"/>
+      <c r="BW11" s="96"/>
+      <c r="BX11" s="96"/>
+      <c r="BY11" s="96"/>
+      <c r="BZ11" s="96"/>
+      <c r="CA11" s="96"/>
+      <c r="CB11" s="96"/>
+      <c r="CC11" s="96"/>
+      <c r="CD11" s="97"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
@@ -25099,80 +29034,80 @@
       <c r="E12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="36"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="95"/>
-      <c r="AM12" s="95"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="95"/>
-      <c r="BA12" s="95"/>
-      <c r="BB12" s="95"/>
-      <c r="BC12" s="95"/>
-      <c r="BD12" s="95"/>
-      <c r="BE12" s="95"/>
-      <c r="BF12" s="95"/>
-      <c r="BG12" s="95"/>
-      <c r="BH12" s="95"/>
-      <c r="BI12" s="95"/>
-      <c r="BJ12" s="95"/>
-      <c r="BK12" s="95"/>
-      <c r="BL12" s="95"/>
-      <c r="BM12" s="95"/>
-      <c r="BN12" s="95"/>
-      <c r="BO12" s="95"/>
-      <c r="BP12" s="95"/>
-      <c r="BQ12" s="95"/>
-      <c r="BR12" s="95"/>
-      <c r="BS12" s="95"/>
-      <c r="BT12" s="95"/>
-      <c r="BU12" s="95"/>
-      <c r="BV12" s="95"/>
-      <c r="BW12" s="95"/>
-      <c r="BX12" s="95"/>
-      <c r="BY12" s="95"/>
-      <c r="BZ12" s="95"/>
-      <c r="CA12" s="95"/>
-      <c r="CB12" s="95"/>
-      <c r="CC12" s="95"/>
-      <c r="CD12" s="96"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="99"/>
+      <c r="U12" s="99"/>
+      <c r="V12" s="99"/>
+      <c r="W12" s="99"/>
+      <c r="X12" s="99"/>
+      <c r="Y12" s="99"/>
+      <c r="Z12" s="99"/>
+      <c r="AA12" s="99"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="99"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="99"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="99"/>
+      <c r="AN12" s="99"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="99"/>
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="99"/>
+      <c r="AS12" s="99"/>
+      <c r="AT12" s="99"/>
+      <c r="AU12" s="99"/>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="99"/>
+      <c r="AX12" s="99"/>
+      <c r="AY12" s="99"/>
+      <c r="AZ12" s="99"/>
+      <c r="BA12" s="99"/>
+      <c r="BB12" s="99"/>
+      <c r="BC12" s="99"/>
+      <c r="BD12" s="99"/>
+      <c r="BE12" s="99"/>
+      <c r="BF12" s="99"/>
+      <c r="BG12" s="99"/>
+      <c r="BH12" s="99"/>
+      <c r="BI12" s="99"/>
+      <c r="BJ12" s="99"/>
+      <c r="BK12" s="99"/>
+      <c r="BL12" s="99"/>
+      <c r="BM12" s="99"/>
+      <c r="BN12" s="99"/>
+      <c r="BO12" s="99"/>
+      <c r="BP12" s="99"/>
+      <c r="BQ12" s="99"/>
+      <c r="BR12" s="99"/>
+      <c r="BS12" s="99"/>
+      <c r="BT12" s="99"/>
+      <c r="BU12" s="99"/>
+      <c r="BV12" s="99"/>
+      <c r="BW12" s="99"/>
+      <c r="BX12" s="99"/>
+      <c r="BY12" s="99"/>
+      <c r="BZ12" s="99"/>
+      <c r="CA12" s="99"/>
+      <c r="CB12" s="99"/>
+      <c r="CC12" s="99"/>
+      <c r="CD12" s="100"/>
       <c r="CJ12" s="3"/>
       <c r="CK12" s="3"/>
       <c r="CL12" s="3"/>
@@ -25256,90 +29191,90 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="33"/>
-      <c r="I13" s="97" t="s">
+      <c r="I13" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97" t="s">
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="97"/>
-      <c r="AO13" s="97"/>
-      <c r="AP13" s="97"/>
-      <c r="AQ13" s="97"/>
-      <c r="AR13" s="97"/>
-      <c r="AS13" s="97"/>
-      <c r="AT13" s="97"/>
-      <c r="AU13" s="97"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97" t="s">
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
+      <c r="AE13" s="91"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="91"/>
+      <c r="AI13" s="91"/>
+      <c r="AJ13" s="91"/>
+      <c r="AK13" s="91"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="91"/>
+      <c r="AO13" s="91"/>
+      <c r="AP13" s="91"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="91"/>
+      <c r="AS13" s="91"/>
+      <c r="AT13" s="91"/>
+      <c r="AU13" s="91"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="91"/>
+      <c r="AX13" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="97"/>
-      <c r="BA13" s="97"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="97"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="97"/>
-      <c r="BJ13" s="97" t="s">
+      <c r="AY13" s="91"/>
+      <c r="AZ13" s="91"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="91"/>
+      <c r="BC13" s="91"/>
+      <c r="BD13" s="91"/>
+      <c r="BE13" s="91"/>
+      <c r="BF13" s="91"/>
+      <c r="BG13" s="91"/>
+      <c r="BH13" s="91"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="97"/>
-      <c r="BM13" s="97"/>
-      <c r="BN13" s="97"/>
-      <c r="BO13" s="97"/>
-      <c r="BP13" s="97" t="s">
+      <c r="BK13" s="91"/>
+      <c r="BL13" s="91"/>
+      <c r="BM13" s="91"/>
+      <c r="BN13" s="91"/>
+      <c r="BO13" s="91"/>
+      <c r="BP13" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="BQ13" s="97"/>
-      <c r="BR13" s="97"/>
-      <c r="BS13" s="97"/>
-      <c r="BT13" s="97"/>
-      <c r="BU13" s="97"/>
-      <c r="BV13" s="97"/>
-      <c r="BW13" s="97"/>
-      <c r="BX13" s="97"/>
-      <c r="BY13" s="97"/>
-      <c r="BZ13" s="97"/>
-      <c r="CA13" s="97"/>
-      <c r="CB13" s="97"/>
-      <c r="CC13" s="97"/>
-      <c r="CD13" s="97"/>
+      <c r="BQ13" s="91"/>
+      <c r="BR13" s="91"/>
+      <c r="BS13" s="91"/>
+      <c r="BT13" s="91"/>
+      <c r="BU13" s="91"/>
+      <c r="BV13" s="91"/>
+      <c r="BW13" s="91"/>
+      <c r="BX13" s="91"/>
+      <c r="BY13" s="91"/>
+      <c r="BZ13" s="91"/>
+      <c r="CA13" s="91"/>
+      <c r="CB13" s="91"/>
+      <c r="CC13" s="91"/>
+      <c r="CD13" s="91"/>
       <c r="CJ13" s="3"/>
       <c r="CK13" s="3"/>
       <c r="CL13" s="3"/>
@@ -27836,82 +31771,82 @@
       <c r="E33" s="46"/>
       <c r="F33" s="46"/>
       <c r="G33" s="47"/>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
-      <c r="AL33" s="92"/>
-      <c r="AM33" s="92"/>
-      <c r="AN33" s="92"/>
-      <c r="AO33" s="92"/>
-      <c r="AP33" s="92"/>
-      <c r="AQ33" s="92"/>
-      <c r="AR33" s="92"/>
-      <c r="AS33" s="92"/>
-      <c r="AT33" s="92"/>
-      <c r="AU33" s="92"/>
-      <c r="AV33" s="92"/>
-      <c r="AW33" s="92"/>
-      <c r="AX33" s="92"/>
-      <c r="AY33" s="92"/>
-      <c r="AZ33" s="92"/>
-      <c r="BA33" s="92"/>
-      <c r="BB33" s="92"/>
-      <c r="BC33" s="92"/>
-      <c r="BD33" s="92"/>
-      <c r="BE33" s="92"/>
-      <c r="BF33" s="92"/>
-      <c r="BG33" s="92"/>
-      <c r="BH33" s="92"/>
-      <c r="BI33" s="92"/>
-      <c r="BJ33" s="92"/>
-      <c r="BK33" s="92"/>
-      <c r="BL33" s="92"/>
-      <c r="BM33" s="92"/>
-      <c r="BN33" s="92"/>
-      <c r="BO33" s="92"/>
-      <c r="BP33" s="92"/>
-      <c r="BQ33" s="92"/>
-      <c r="BR33" s="92"/>
-      <c r="BS33" s="92"/>
-      <c r="BT33" s="92"/>
-      <c r="BU33" s="92"/>
-      <c r="BV33" s="92"/>
-      <c r="BW33" s="92"/>
-      <c r="BX33" s="92"/>
-      <c r="BY33" s="92"/>
-      <c r="BZ33" s="92"/>
-      <c r="CA33" s="92"/>
-      <c r="CB33" s="92"/>
-      <c r="CC33" s="92"/>
-      <c r="CD33" s="93"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
+      <c r="AC33" s="96"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="96"/>
+      <c r="AN33" s="96"/>
+      <c r="AO33" s="96"/>
+      <c r="AP33" s="96"/>
+      <c r="AQ33" s="96"/>
+      <c r="AR33" s="96"/>
+      <c r="AS33" s="96"/>
+      <c r="AT33" s="96"/>
+      <c r="AU33" s="96"/>
+      <c r="AV33" s="96"/>
+      <c r="AW33" s="96"/>
+      <c r="AX33" s="96"/>
+      <c r="AY33" s="96"/>
+      <c r="AZ33" s="96"/>
+      <c r="BA33" s="96"/>
+      <c r="BB33" s="96"/>
+      <c r="BC33" s="96"/>
+      <c r="BD33" s="96"/>
+      <c r="BE33" s="96"/>
+      <c r="BF33" s="96"/>
+      <c r="BG33" s="96"/>
+      <c r="BH33" s="96"/>
+      <c r="BI33" s="96"/>
+      <c r="BJ33" s="96"/>
+      <c r="BK33" s="96"/>
+      <c r="BL33" s="96"/>
+      <c r="BM33" s="96"/>
+      <c r="BN33" s="96"/>
+      <c r="BO33" s="96"/>
+      <c r="BP33" s="96"/>
+      <c r="BQ33" s="96"/>
+      <c r="BR33" s="96"/>
+      <c r="BS33" s="96"/>
+      <c r="BT33" s="96"/>
+      <c r="BU33" s="96"/>
+      <c r="BV33" s="96"/>
+      <c r="BW33" s="96"/>
+      <c r="BX33" s="96"/>
+      <c r="BY33" s="96"/>
+      <c r="BZ33" s="96"/>
+      <c r="CA33" s="96"/>
+      <c r="CB33" s="96"/>
+      <c r="CC33" s="96"/>
+      <c r="CD33" s="97"/>
     </row>
     <row r="34" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A34" s="42"/>
@@ -27921,80 +31856,80 @@
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
       <c r="G34" s="44"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="95"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="95"/>
-      <c r="BA34" s="95"/>
-      <c r="BB34" s="95"/>
-      <c r="BC34" s="95"/>
-      <c r="BD34" s="95"/>
-      <c r="BE34" s="95"/>
-      <c r="BF34" s="95"/>
-      <c r="BG34" s="95"/>
-      <c r="BH34" s="95"/>
-      <c r="BI34" s="95"/>
-      <c r="BJ34" s="95"/>
-      <c r="BK34" s="95"/>
-      <c r="BL34" s="95"/>
-      <c r="BM34" s="95"/>
-      <c r="BN34" s="95"/>
-      <c r="BO34" s="95"/>
-      <c r="BP34" s="95"/>
-      <c r="BQ34" s="95"/>
-      <c r="BR34" s="95"/>
-      <c r="BS34" s="95"/>
-      <c r="BT34" s="95"/>
-      <c r="BU34" s="95"/>
-      <c r="BV34" s="95"/>
-      <c r="BW34" s="95"/>
-      <c r="BX34" s="95"/>
-      <c r="BY34" s="95"/>
-      <c r="BZ34" s="95"/>
-      <c r="CA34" s="95"/>
-      <c r="CB34" s="95"/>
-      <c r="CC34" s="95"/>
-      <c r="CD34" s="96"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="99"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="99"/>
+      <c r="AV34" s="99"/>
+      <c r="AW34" s="99"/>
+      <c r="AX34" s="99"/>
+      <c r="AY34" s="99"/>
+      <c r="AZ34" s="99"/>
+      <c r="BA34" s="99"/>
+      <c r="BB34" s="99"/>
+      <c r="BC34" s="99"/>
+      <c r="BD34" s="99"/>
+      <c r="BE34" s="99"/>
+      <c r="BF34" s="99"/>
+      <c r="BG34" s="99"/>
+      <c r="BH34" s="99"/>
+      <c r="BI34" s="99"/>
+      <c r="BJ34" s="99"/>
+      <c r="BK34" s="99"/>
+      <c r="BL34" s="99"/>
+      <c r="BM34" s="99"/>
+      <c r="BN34" s="99"/>
+      <c r="BO34" s="99"/>
+      <c r="BP34" s="99"/>
+      <c r="BQ34" s="99"/>
+      <c r="BR34" s="99"/>
+      <c r="BS34" s="99"/>
+      <c r="BT34" s="99"/>
+      <c r="BU34" s="99"/>
+      <c r="BV34" s="99"/>
+      <c r="BW34" s="99"/>
+      <c r="BX34" s="99"/>
+      <c r="BY34" s="99"/>
+      <c r="BZ34" s="99"/>
+      <c r="CA34" s="99"/>
+      <c r="CB34" s="99"/>
+      <c r="CC34" s="99"/>
+      <c r="CD34" s="100"/>
     </row>
     <row r="35" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A35" s="45"/>
@@ -28004,88 +31939,88 @@
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="47"/>
-      <c r="I35" s="97" t="s">
+      <c r="I35" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="97"/>
-      <c r="T35" s="97"/>
-      <c r="U35" s="97"/>
-      <c r="V35" s="98" t="s">
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="99"/>
-      <c r="AN35" s="99"/>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" s="99"/>
-      <c r="AR35" s="99"/>
-      <c r="AS35" s="99"/>
-      <c r="AT35" s="99"/>
-      <c r="AU35" s="99"/>
-      <c r="AV35" s="99"/>
-      <c r="AW35" s="99"/>
-      <c r="AX35" s="99"/>
-      <c r="AY35" s="99"/>
-      <c r="AZ35" s="99"/>
-      <c r="BA35" s="99"/>
-      <c r="BB35" s="99"/>
-      <c r="BC35" s="99"/>
-      <c r="BD35" s="99"/>
-      <c r="BE35" s="99"/>
-      <c r="BF35" s="99"/>
-      <c r="BG35" s="99"/>
-      <c r="BH35" s="99"/>
-      <c r="BI35" s="100"/>
-      <c r="BJ35" s="97" t="s">
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93"/>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93"/>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="94"/>
+      <c r="BJ35" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="BK35" s="97"/>
-      <c r="BL35" s="97"/>
-      <c r="BM35" s="97"/>
-      <c r="BN35" s="97"/>
-      <c r="BO35" s="97"/>
-      <c r="BP35" s="97" t="s">
+      <c r="BK35" s="91"/>
+      <c r="BL35" s="91"/>
+      <c r="BM35" s="91"/>
+      <c r="BN35" s="91"/>
+      <c r="BO35" s="91"/>
+      <c r="BP35" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="BQ35" s="97"/>
-      <c r="BR35" s="97"/>
-      <c r="BS35" s="97"/>
-      <c r="BT35" s="97"/>
-      <c r="BU35" s="97"/>
-      <c r="BV35" s="97"/>
-      <c r="BW35" s="97"/>
-      <c r="BX35" s="97"/>
-      <c r="BY35" s="97"/>
-      <c r="BZ35" s="97"/>
-      <c r="CA35" s="97"/>
-      <c r="CB35" s="97"/>
-      <c r="CC35" s="97"/>
-      <c r="CD35" s="97"/>
+      <c r="BQ35" s="91"/>
+      <c r="BR35" s="91"/>
+      <c r="BS35" s="91"/>
+      <c r="BT35" s="91"/>
+      <c r="BU35" s="91"/>
+      <c r="BV35" s="91"/>
+      <c r="BW35" s="91"/>
+      <c r="BX35" s="91"/>
+      <c r="BY35" s="91"/>
+      <c r="BZ35" s="91"/>
+      <c r="CA35" s="91"/>
+      <c r="CB35" s="91"/>
+      <c r="CC35" s="91"/>
+      <c r="CD35" s="91"/>
     </row>
     <row r="36" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="42"/>
@@ -28822,82 +32757,82 @@
       <c r="E47" s="46"/>
       <c r="F47" s="46"/>
       <c r="G47" s="47"/>
-      <c r="I47" s="91" t="s">
+      <c r="I47" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="92"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="92"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="92"/>
-      <c r="AF47" s="92"/>
-      <c r="AG47" s="92"/>
-      <c r="AH47" s="92"/>
-      <c r="AI47" s="92"/>
-      <c r="AJ47" s="92"/>
-      <c r="AK47" s="92"/>
-      <c r="AL47" s="92"/>
-      <c r="AM47" s="92"/>
-      <c r="AN47" s="92"/>
-      <c r="AO47" s="92"/>
-      <c r="AP47" s="92"/>
-      <c r="AQ47" s="92"/>
-      <c r="AR47" s="92"/>
-      <c r="AS47" s="92"/>
-      <c r="AT47" s="92"/>
-      <c r="AU47" s="92"/>
-      <c r="AV47" s="92"/>
-      <c r="AW47" s="92"/>
-      <c r="AX47" s="92"/>
-      <c r="AY47" s="92"/>
-      <c r="AZ47" s="92"/>
-      <c r="BA47" s="92"/>
-      <c r="BB47" s="92"/>
-      <c r="BC47" s="92"/>
-      <c r="BD47" s="92"/>
-      <c r="BE47" s="92"/>
-      <c r="BF47" s="92"/>
-      <c r="BG47" s="92"/>
-      <c r="BH47" s="92"/>
-      <c r="BI47" s="92"/>
-      <c r="BJ47" s="92"/>
-      <c r="BK47" s="92"/>
-      <c r="BL47" s="92"/>
-      <c r="BM47" s="92"/>
-      <c r="BN47" s="92"/>
-      <c r="BO47" s="92"/>
-      <c r="BP47" s="92"/>
-      <c r="BQ47" s="92"/>
-      <c r="BR47" s="92"/>
-      <c r="BS47" s="92"/>
-      <c r="BT47" s="92"/>
-      <c r="BU47" s="92"/>
-      <c r="BV47" s="92"/>
-      <c r="BW47" s="92"/>
-      <c r="BX47" s="92"/>
-      <c r="BY47" s="92"/>
-      <c r="BZ47" s="92"/>
-      <c r="CA47" s="92"/>
-      <c r="CB47" s="92"/>
-      <c r="CC47" s="92"/>
-      <c r="CD47" s="93"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="96"/>
+      <c r="V47" s="96"/>
+      <c r="W47" s="96"/>
+      <c r="X47" s="96"/>
+      <c r="Y47" s="96"/>
+      <c r="Z47" s="96"/>
+      <c r="AA47" s="96"/>
+      <c r="AB47" s="96"/>
+      <c r="AC47" s="96"/>
+      <c r="AD47" s="96"/>
+      <c r="AE47" s="96"/>
+      <c r="AF47" s="96"/>
+      <c r="AG47" s="96"/>
+      <c r="AH47" s="96"/>
+      <c r="AI47" s="96"/>
+      <c r="AJ47" s="96"/>
+      <c r="AK47" s="96"/>
+      <c r="AL47" s="96"/>
+      <c r="AM47" s="96"/>
+      <c r="AN47" s="96"/>
+      <c r="AO47" s="96"/>
+      <c r="AP47" s="96"/>
+      <c r="AQ47" s="96"/>
+      <c r="AR47" s="96"/>
+      <c r="AS47" s="96"/>
+      <c r="AT47" s="96"/>
+      <c r="AU47" s="96"/>
+      <c r="AV47" s="96"/>
+      <c r="AW47" s="96"/>
+      <c r="AX47" s="96"/>
+      <c r="AY47" s="96"/>
+      <c r="AZ47" s="96"/>
+      <c r="BA47" s="96"/>
+      <c r="BB47" s="96"/>
+      <c r="BC47" s="96"/>
+      <c r="BD47" s="96"/>
+      <c r="BE47" s="96"/>
+      <c r="BF47" s="96"/>
+      <c r="BG47" s="96"/>
+      <c r="BH47" s="96"/>
+      <c r="BI47" s="96"/>
+      <c r="BJ47" s="96"/>
+      <c r="BK47" s="96"/>
+      <c r="BL47" s="96"/>
+      <c r="BM47" s="96"/>
+      <c r="BN47" s="96"/>
+      <c r="BO47" s="96"/>
+      <c r="BP47" s="96"/>
+      <c r="BQ47" s="96"/>
+      <c r="BR47" s="96"/>
+      <c r="BS47" s="96"/>
+      <c r="BT47" s="96"/>
+      <c r="BU47" s="96"/>
+      <c r="BV47" s="96"/>
+      <c r="BW47" s="96"/>
+      <c r="BX47" s="96"/>
+      <c r="BY47" s="96"/>
+      <c r="BZ47" s="96"/>
+      <c r="CA47" s="96"/>
+      <c r="CB47" s="96"/>
+      <c r="CC47" s="96"/>
+      <c r="CD47" s="97"/>
     </row>
     <row r="48" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A48" s="42"/>
@@ -28907,80 +32842,80 @@
       <c r="E48" s="43"/>
       <c r="F48" s="43"/>
       <c r="G48" s="44"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
-      <c r="L48" s="95"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="95"/>
-      <c r="P48" s="95"/>
-      <c r="Q48" s="95"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
-      <c r="V48" s="95"/>
-      <c r="W48" s="95"/>
-      <c r="X48" s="95"/>
-      <c r="Y48" s="95"/>
-      <c r="Z48" s="95"/>
-      <c r="AA48" s="95"/>
-      <c r="AB48" s="95"/>
-      <c r="AC48" s="95"/>
-      <c r="AD48" s="95"/>
-      <c r="AE48" s="95"/>
-      <c r="AF48" s="95"/>
-      <c r="AG48" s="95"/>
-      <c r="AH48" s="95"/>
-      <c r="AI48" s="95"/>
-      <c r="AJ48" s="95"/>
-      <c r="AK48" s="95"/>
-      <c r="AL48" s="95"/>
-      <c r="AM48" s="95"/>
-      <c r="AN48" s="95"/>
-      <c r="AO48" s="95"/>
-      <c r="AP48" s="95"/>
-      <c r="AQ48" s="95"/>
-      <c r="AR48" s="95"/>
-      <c r="AS48" s="95"/>
-      <c r="AT48" s="95"/>
-      <c r="AU48" s="95"/>
-      <c r="AV48" s="95"/>
-      <c r="AW48" s="95"/>
-      <c r="AX48" s="95"/>
-      <c r="AY48" s="95"/>
-      <c r="AZ48" s="95"/>
-      <c r="BA48" s="95"/>
-      <c r="BB48" s="95"/>
-      <c r="BC48" s="95"/>
-      <c r="BD48" s="95"/>
-      <c r="BE48" s="95"/>
-      <c r="BF48" s="95"/>
-      <c r="BG48" s="95"/>
-      <c r="BH48" s="95"/>
-      <c r="BI48" s="95"/>
-      <c r="BJ48" s="95"/>
-      <c r="BK48" s="95"/>
-      <c r="BL48" s="95"/>
-      <c r="BM48" s="95"/>
-      <c r="BN48" s="95"/>
-      <c r="BO48" s="95"/>
-      <c r="BP48" s="95"/>
-      <c r="BQ48" s="95"/>
-      <c r="BR48" s="95"/>
-      <c r="BS48" s="95"/>
-      <c r="BT48" s="95"/>
-      <c r="BU48" s="95"/>
-      <c r="BV48" s="95"/>
-      <c r="BW48" s="95"/>
-      <c r="BX48" s="95"/>
-      <c r="BY48" s="95"/>
-      <c r="BZ48" s="95"/>
-      <c r="CA48" s="95"/>
-      <c r="CB48" s="95"/>
-      <c r="CC48" s="95"/>
-      <c r="CD48" s="96"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="99"/>
+      <c r="M48" s="99"/>
+      <c r="N48" s="99"/>
+      <c r="O48" s="99"/>
+      <c r="P48" s="99"/>
+      <c r="Q48" s="99"/>
+      <c r="R48" s="99"/>
+      <c r="S48" s="99"/>
+      <c r="T48" s="99"/>
+      <c r="U48" s="99"/>
+      <c r="V48" s="99"/>
+      <c r="W48" s="99"/>
+      <c r="X48" s="99"/>
+      <c r="Y48" s="99"/>
+      <c r="Z48" s="99"/>
+      <c r="AA48" s="99"/>
+      <c r="AB48" s="99"/>
+      <c r="AC48" s="99"/>
+      <c r="AD48" s="99"/>
+      <c r="AE48" s="99"/>
+      <c r="AF48" s="99"/>
+      <c r="AG48" s="99"/>
+      <c r="AH48" s="99"/>
+      <c r="AI48" s="99"/>
+      <c r="AJ48" s="99"/>
+      <c r="AK48" s="99"/>
+      <c r="AL48" s="99"/>
+      <c r="AM48" s="99"/>
+      <c r="AN48" s="99"/>
+      <c r="AO48" s="99"/>
+      <c r="AP48" s="99"/>
+      <c r="AQ48" s="99"/>
+      <c r="AR48" s="99"/>
+      <c r="AS48" s="99"/>
+      <c r="AT48" s="99"/>
+      <c r="AU48" s="99"/>
+      <c r="AV48" s="99"/>
+      <c r="AW48" s="99"/>
+      <c r="AX48" s="99"/>
+      <c r="AY48" s="99"/>
+      <c r="AZ48" s="99"/>
+      <c r="BA48" s="99"/>
+      <c r="BB48" s="99"/>
+      <c r="BC48" s="99"/>
+      <c r="BD48" s="99"/>
+      <c r="BE48" s="99"/>
+      <c r="BF48" s="99"/>
+      <c r="BG48" s="99"/>
+      <c r="BH48" s="99"/>
+      <c r="BI48" s="99"/>
+      <c r="BJ48" s="99"/>
+      <c r="BK48" s="99"/>
+      <c r="BL48" s="99"/>
+      <c r="BM48" s="99"/>
+      <c r="BN48" s="99"/>
+      <c r="BO48" s="99"/>
+      <c r="BP48" s="99"/>
+      <c r="BQ48" s="99"/>
+      <c r="BR48" s="99"/>
+      <c r="BS48" s="99"/>
+      <c r="BT48" s="99"/>
+      <c r="BU48" s="99"/>
+      <c r="BV48" s="99"/>
+      <c r="BW48" s="99"/>
+      <c r="BX48" s="99"/>
+      <c r="BY48" s="99"/>
+      <c r="BZ48" s="99"/>
+      <c r="CA48" s="99"/>
+      <c r="CB48" s="99"/>
+      <c r="CC48" s="99"/>
+      <c r="CD48" s="100"/>
     </row>
     <row r="49" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A49" s="45"/>
@@ -28990,86 +32925,86 @@
       <c r="E49" s="46"/>
       <c r="F49" s="46"/>
       <c r="G49" s="47"/>
-      <c r="I49" s="97" t="s">
+      <c r="I49" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
-      <c r="M49" s="97"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="97"/>
-      <c r="S49" s="97"/>
-      <c r="T49" s="97"/>
-      <c r="U49" s="97"/>
-      <c r="V49" s="97" t="s">
+      <c r="J49" s="91"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
+      <c r="N49" s="91"/>
+      <c r="O49" s="91"/>
+      <c r="P49" s="91"/>
+      <c r="Q49" s="91"/>
+      <c r="R49" s="91"/>
+      <c r="S49" s="91"/>
+      <c r="T49" s="91"/>
+      <c r="U49" s="91"/>
+      <c r="V49" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="W49" s="97"/>
-      <c r="X49" s="97"/>
-      <c r="Y49" s="97"/>
-      <c r="Z49" s="97"/>
-      <c r="AA49" s="97"/>
-      <c r="AB49" s="97"/>
-      <c r="AC49" s="97"/>
-      <c r="AD49" s="97"/>
-      <c r="AE49" s="97"/>
-      <c r="AF49" s="97"/>
-      <c r="AG49" s="97"/>
-      <c r="AH49" s="97"/>
-      <c r="AI49" s="97"/>
-      <c r="AJ49" s="97"/>
-      <c r="AK49" s="97"/>
-      <c r="AL49" s="97"/>
-      <c r="AM49" s="97"/>
-      <c r="AN49" s="97"/>
-      <c r="AO49" s="97"/>
-      <c r="AP49" s="97"/>
-      <c r="AQ49" s="97"/>
-      <c r="AR49" s="97"/>
-      <c r="AS49" s="97"/>
-      <c r="AT49" s="97"/>
-      <c r="AU49" s="97"/>
-      <c r="AV49" s="97"/>
-      <c r="AW49" s="97"/>
-      <c r="AX49" s="97" t="s">
+      <c r="W49" s="91"/>
+      <c r="X49" s="91"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="91"/>
+      <c r="AA49" s="91"/>
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="91"/>
+      <c r="AD49" s="91"/>
+      <c r="AE49" s="91"/>
+      <c r="AF49" s="91"/>
+      <c r="AG49" s="91"/>
+      <c r="AH49" s="91"/>
+      <c r="AI49" s="91"/>
+      <c r="AJ49" s="91"/>
+      <c r="AK49" s="91"/>
+      <c r="AL49" s="91"/>
+      <c r="AM49" s="91"/>
+      <c r="AN49" s="91"/>
+      <c r="AO49" s="91"/>
+      <c r="AP49" s="91"/>
+      <c r="AQ49" s="91"/>
+      <c r="AR49" s="91"/>
+      <c r="AS49" s="91"/>
+      <c r="AT49" s="91"/>
+      <c r="AU49" s="91"/>
+      <c r="AV49" s="91"/>
+      <c r="AW49" s="91"/>
+      <c r="AX49" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="AY49" s="97"/>
-      <c r="AZ49" s="97"/>
-      <c r="BA49" s="97"/>
-      <c r="BB49" s="97"/>
-      <c r="BC49" s="97"/>
-      <c r="BD49" s="97"/>
-      <c r="BE49" s="97"/>
-      <c r="BF49" s="97"/>
-      <c r="BG49" s="97"/>
-      <c r="BH49" s="97"/>
-      <c r="BI49" s="97"/>
-      <c r="BJ49" s="98"/>
-      <c r="BK49" s="99"/>
-      <c r="BL49" s="99"/>
-      <c r="BM49" s="99"/>
-      <c r="BN49" s="99"/>
-      <c r="BO49" s="99"/>
-      <c r="BP49" s="99"/>
-      <c r="BQ49" s="99"/>
-      <c r="BR49" s="99"/>
-      <c r="BS49" s="99"/>
-      <c r="BT49" s="99"/>
-      <c r="BU49" s="99"/>
-      <c r="BV49" s="99"/>
-      <c r="BW49" s="99"/>
-      <c r="BX49" s="99"/>
-      <c r="BY49" s="99"/>
-      <c r="BZ49" s="99"/>
-      <c r="CA49" s="99"/>
-      <c r="CB49" s="99"/>
-      <c r="CC49" s="99"/>
-      <c r="CD49" s="100"/>
+      <c r="AY49" s="91"/>
+      <c r="AZ49" s="91"/>
+      <c r="BA49" s="91"/>
+      <c r="BB49" s="91"/>
+      <c r="BC49" s="91"/>
+      <c r="BD49" s="91"/>
+      <c r="BE49" s="91"/>
+      <c r="BF49" s="91"/>
+      <c r="BG49" s="91"/>
+      <c r="BH49" s="91"/>
+      <c r="BI49" s="91"/>
+      <c r="BJ49" s="92"/>
+      <c r="BK49" s="93"/>
+      <c r="BL49" s="93"/>
+      <c r="BM49" s="93"/>
+      <c r="BN49" s="93"/>
+      <c r="BO49" s="93"/>
+      <c r="BP49" s="93"/>
+      <c r="BQ49" s="93"/>
+      <c r="BR49" s="93"/>
+      <c r="BS49" s="93"/>
+      <c r="BT49" s="93"/>
+      <c r="BU49" s="93"/>
+      <c r="BV49" s="93"/>
+      <c r="BW49" s="93"/>
+      <c r="BX49" s="93"/>
+      <c r="BY49" s="93"/>
+      <c r="BZ49" s="93"/>
+      <c r="CA49" s="93"/>
+      <c r="CB49" s="93"/>
+      <c r="CC49" s="93"/>
+      <c r="CD49" s="94"/>
     </row>
     <row r="50" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="42"/>
@@ -29647,244 +33582,244 @@
     </row>
     <row r="58" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="59" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I59" s="91" t="s">
+      <c r="I59" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
-      <c r="T59" s="92"/>
-      <c r="U59" s="92"/>
-      <c r="V59" s="92"/>
-      <c r="W59" s="92"/>
-      <c r="X59" s="92"/>
-      <c r="Y59" s="92"/>
-      <c r="Z59" s="92"/>
-      <c r="AA59" s="92"/>
-      <c r="AB59" s="92"/>
-      <c r="AC59" s="92"/>
-      <c r="AD59" s="92"/>
-      <c r="AE59" s="92"/>
-      <c r="AF59" s="92"/>
-      <c r="AG59" s="92"/>
-      <c r="AH59" s="92"/>
-      <c r="AI59" s="92"/>
-      <c r="AJ59" s="92"/>
-      <c r="AK59" s="92"/>
-      <c r="AL59" s="92"/>
-      <c r="AM59" s="92"/>
-      <c r="AN59" s="92"/>
-      <c r="AO59" s="92"/>
-      <c r="AP59" s="92"/>
-      <c r="AQ59" s="92"/>
-      <c r="AR59" s="92"/>
-      <c r="AS59" s="92"/>
-      <c r="AT59" s="92"/>
-      <c r="AU59" s="92"/>
-      <c r="AV59" s="92"/>
-      <c r="AW59" s="92"/>
-      <c r="AX59" s="92"/>
-      <c r="AY59" s="92"/>
-      <c r="AZ59" s="92"/>
-      <c r="BA59" s="92"/>
-      <c r="BB59" s="92"/>
-      <c r="BC59" s="92"/>
-      <c r="BD59" s="92"/>
-      <c r="BE59" s="92"/>
-      <c r="BF59" s="92"/>
-      <c r="BG59" s="92"/>
-      <c r="BH59" s="92"/>
-      <c r="BI59" s="92"/>
-      <c r="BJ59" s="92"/>
-      <c r="BK59" s="92"/>
-      <c r="BL59" s="92"/>
-      <c r="BM59" s="92"/>
-      <c r="BN59" s="92"/>
-      <c r="BO59" s="92"/>
-      <c r="BP59" s="92"/>
-      <c r="BQ59" s="92"/>
-      <c r="BR59" s="92"/>
-      <c r="BS59" s="92"/>
-      <c r="BT59" s="92"/>
-      <c r="BU59" s="92"/>
-      <c r="BV59" s="92"/>
-      <c r="BW59" s="92"/>
-      <c r="BX59" s="92"/>
-      <c r="BY59" s="92"/>
-      <c r="BZ59" s="92"/>
-      <c r="CA59" s="92"/>
-      <c r="CB59" s="92"/>
-      <c r="CC59" s="92"/>
-      <c r="CD59" s="93"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
+      <c r="W59" s="96"/>
+      <c r="X59" s="96"/>
+      <c r="Y59" s="96"/>
+      <c r="Z59" s="96"/>
+      <c r="AA59" s="96"/>
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="96"/>
+      <c r="AD59" s="96"/>
+      <c r="AE59" s="96"/>
+      <c r="AF59" s="96"/>
+      <c r="AG59" s="96"/>
+      <c r="AH59" s="96"/>
+      <c r="AI59" s="96"/>
+      <c r="AJ59" s="96"/>
+      <c r="AK59" s="96"/>
+      <c r="AL59" s="96"/>
+      <c r="AM59" s="96"/>
+      <c r="AN59" s="96"/>
+      <c r="AO59" s="96"/>
+      <c r="AP59" s="96"/>
+      <c r="AQ59" s="96"/>
+      <c r="AR59" s="96"/>
+      <c r="AS59" s="96"/>
+      <c r="AT59" s="96"/>
+      <c r="AU59" s="96"/>
+      <c r="AV59" s="96"/>
+      <c r="AW59" s="96"/>
+      <c r="AX59" s="96"/>
+      <c r="AY59" s="96"/>
+      <c r="AZ59" s="96"/>
+      <c r="BA59" s="96"/>
+      <c r="BB59" s="96"/>
+      <c r="BC59" s="96"/>
+      <c r="BD59" s="96"/>
+      <c r="BE59" s="96"/>
+      <c r="BF59" s="96"/>
+      <c r="BG59" s="96"/>
+      <c r="BH59" s="96"/>
+      <c r="BI59" s="96"/>
+      <c r="BJ59" s="96"/>
+      <c r="BK59" s="96"/>
+      <c r="BL59" s="96"/>
+      <c r="BM59" s="96"/>
+      <c r="BN59" s="96"/>
+      <c r="BO59" s="96"/>
+      <c r="BP59" s="96"/>
+      <c r="BQ59" s="96"/>
+      <c r="BR59" s="96"/>
+      <c r="BS59" s="96"/>
+      <c r="BT59" s="96"/>
+      <c r="BU59" s="96"/>
+      <c r="BV59" s="96"/>
+      <c r="BW59" s="96"/>
+      <c r="BX59" s="96"/>
+      <c r="BY59" s="96"/>
+      <c r="BZ59" s="96"/>
+      <c r="CA59" s="96"/>
+      <c r="CB59" s="96"/>
+      <c r="CC59" s="96"/>
+      <c r="CD59" s="97"/>
     </row>
     <row r="60" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I60" s="94"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="95"/>
-      <c r="Q60" s="95"/>
-      <c r="R60" s="95"/>
-      <c r="S60" s="95"/>
-      <c r="T60" s="95"/>
-      <c r="U60" s="95"/>
-      <c r="V60" s="95"/>
-      <c r="W60" s="95"/>
-      <c r="X60" s="95"/>
-      <c r="Y60" s="95"/>
-      <c r="Z60" s="95"/>
-      <c r="AA60" s="95"/>
-      <c r="AB60" s="95"/>
-      <c r="AC60" s="95"/>
-      <c r="AD60" s="95"/>
-      <c r="AE60" s="95"/>
-      <c r="AF60" s="95"/>
-      <c r="AG60" s="95"/>
-      <c r="AH60" s="95"/>
-      <c r="AI60" s="95"/>
-      <c r="AJ60" s="95"/>
-      <c r="AK60" s="95"/>
-      <c r="AL60" s="95"/>
-      <c r="AM60" s="95"/>
-      <c r="AN60" s="95"/>
-      <c r="AO60" s="95"/>
-      <c r="AP60" s="95"/>
-      <c r="AQ60" s="95"/>
-      <c r="AR60" s="95"/>
-      <c r="AS60" s="95"/>
-      <c r="AT60" s="95"/>
-      <c r="AU60" s="95"/>
-      <c r="AV60" s="95"/>
-      <c r="AW60" s="95"/>
-      <c r="AX60" s="95"/>
-      <c r="AY60" s="95"/>
-      <c r="AZ60" s="95"/>
-      <c r="BA60" s="95"/>
-      <c r="BB60" s="95"/>
-      <c r="BC60" s="95"/>
-      <c r="BD60" s="95"/>
-      <c r="BE60" s="95"/>
-      <c r="BF60" s="95"/>
-      <c r="BG60" s="95"/>
-      <c r="BH60" s="95"/>
-      <c r="BI60" s="95"/>
-      <c r="BJ60" s="95"/>
-      <c r="BK60" s="95"/>
-      <c r="BL60" s="95"/>
-      <c r="BM60" s="95"/>
-      <c r="BN60" s="95"/>
-      <c r="BO60" s="95"/>
-      <c r="BP60" s="95"/>
-      <c r="BQ60" s="95"/>
-      <c r="BR60" s="95"/>
-      <c r="BS60" s="95"/>
-      <c r="BT60" s="95"/>
-      <c r="BU60" s="95"/>
-      <c r="BV60" s="95"/>
-      <c r="BW60" s="95"/>
-      <c r="BX60" s="95"/>
-      <c r="BY60" s="95"/>
-      <c r="BZ60" s="95"/>
-      <c r="CA60" s="95"/>
-      <c r="CB60" s="95"/>
-      <c r="CC60" s="95"/>
-      <c r="CD60" s="96"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="99"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="99"/>
+      <c r="M60" s="99"/>
+      <c r="N60" s="99"/>
+      <c r="O60" s="99"/>
+      <c r="P60" s="99"/>
+      <c r="Q60" s="99"/>
+      <c r="R60" s="99"/>
+      <c r="S60" s="99"/>
+      <c r="T60" s="99"/>
+      <c r="U60" s="99"/>
+      <c r="V60" s="99"/>
+      <c r="W60" s="99"/>
+      <c r="X60" s="99"/>
+      <c r="Y60" s="99"/>
+      <c r="Z60" s="99"/>
+      <c r="AA60" s="99"/>
+      <c r="AB60" s="99"/>
+      <c r="AC60" s="99"/>
+      <c r="AD60" s="99"/>
+      <c r="AE60" s="99"/>
+      <c r="AF60" s="99"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
+      <c r="AK60" s="99"/>
+      <c r="AL60" s="99"/>
+      <c r="AM60" s="99"/>
+      <c r="AN60" s="99"/>
+      <c r="AO60" s="99"/>
+      <c r="AP60" s="99"/>
+      <c r="AQ60" s="99"/>
+      <c r="AR60" s="99"/>
+      <c r="AS60" s="99"/>
+      <c r="AT60" s="99"/>
+      <c r="AU60" s="99"/>
+      <c r="AV60" s="99"/>
+      <c r="AW60" s="99"/>
+      <c r="AX60" s="99"/>
+      <c r="AY60" s="99"/>
+      <c r="AZ60" s="99"/>
+      <c r="BA60" s="99"/>
+      <c r="BB60" s="99"/>
+      <c r="BC60" s="99"/>
+      <c r="BD60" s="99"/>
+      <c r="BE60" s="99"/>
+      <c r="BF60" s="99"/>
+      <c r="BG60" s="99"/>
+      <c r="BH60" s="99"/>
+      <c r="BI60" s="99"/>
+      <c r="BJ60" s="99"/>
+      <c r="BK60" s="99"/>
+      <c r="BL60" s="99"/>
+      <c r="BM60" s="99"/>
+      <c r="BN60" s="99"/>
+      <c r="BO60" s="99"/>
+      <c r="BP60" s="99"/>
+      <c r="BQ60" s="99"/>
+      <c r="BR60" s="99"/>
+      <c r="BS60" s="99"/>
+      <c r="BT60" s="99"/>
+      <c r="BU60" s="99"/>
+      <c r="BV60" s="99"/>
+      <c r="BW60" s="99"/>
+      <c r="BX60" s="99"/>
+      <c r="BY60" s="99"/>
+      <c r="BZ60" s="99"/>
+      <c r="CA60" s="99"/>
+      <c r="CB60" s="99"/>
+      <c r="CC60" s="99"/>
+      <c r="CD60" s="100"/>
     </row>
     <row r="61" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I61" s="97" t="s">
+      <c r="I61" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
-      <c r="M61" s="97"/>
-      <c r="N61" s="97"/>
-      <c r="O61" s="97"/>
-      <c r="P61" s="97"/>
-      <c r="Q61" s="97"/>
-      <c r="R61" s="97"/>
-      <c r="S61" s="97"/>
-      <c r="T61" s="97"/>
-      <c r="U61" s="97"/>
-      <c r="V61" s="97" t="s">
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="91"/>
+      <c r="N61" s="91"/>
+      <c r="O61" s="91"/>
+      <c r="P61" s="91"/>
+      <c r="Q61" s="91"/>
+      <c r="R61" s="91"/>
+      <c r="S61" s="91"/>
+      <c r="T61" s="91"/>
+      <c r="U61" s="91"/>
+      <c r="V61" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="W61" s="97"/>
-      <c r="X61" s="97"/>
-      <c r="Y61" s="97"/>
-      <c r="Z61" s="97"/>
-      <c r="AA61" s="97"/>
-      <c r="AB61" s="97"/>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="97"/>
-      <c r="AE61" s="97"/>
-      <c r="AF61" s="97"/>
-      <c r="AG61" s="97"/>
-      <c r="AH61" s="97"/>
-      <c r="AI61" s="97"/>
-      <c r="AJ61" s="97"/>
-      <c r="AK61" s="97"/>
-      <c r="AL61" s="97"/>
-      <c r="AM61" s="97"/>
-      <c r="AN61" s="97"/>
-      <c r="AO61" s="97"/>
-      <c r="AP61" s="97"/>
-      <c r="AQ61" s="97"/>
-      <c r="AR61" s="97"/>
-      <c r="AS61" s="97"/>
-      <c r="AT61" s="97"/>
-      <c r="AU61" s="97"/>
-      <c r="AV61" s="97"/>
-      <c r="AW61" s="97"/>
-      <c r="AX61" s="97" t="s">
+      <c r="W61" s="91"/>
+      <c r="X61" s="91"/>
+      <c r="Y61" s="91"/>
+      <c r="Z61" s="91"/>
+      <c r="AA61" s="91"/>
+      <c r="AB61" s="91"/>
+      <c r="AC61" s="91"/>
+      <c r="AD61" s="91"/>
+      <c r="AE61" s="91"/>
+      <c r="AF61" s="91"/>
+      <c r="AG61" s="91"/>
+      <c r="AH61" s="91"/>
+      <c r="AI61" s="91"/>
+      <c r="AJ61" s="91"/>
+      <c r="AK61" s="91"/>
+      <c r="AL61" s="91"/>
+      <c r="AM61" s="91"/>
+      <c r="AN61" s="91"/>
+      <c r="AO61" s="91"/>
+      <c r="AP61" s="91"/>
+      <c r="AQ61" s="91"/>
+      <c r="AR61" s="91"/>
+      <c r="AS61" s="91"/>
+      <c r="AT61" s="91"/>
+      <c r="AU61" s="91"/>
+      <c r="AV61" s="91"/>
+      <c r="AW61" s="91"/>
+      <c r="AX61" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="AY61" s="97"/>
-      <c r="AZ61" s="97"/>
-      <c r="BA61" s="97"/>
-      <c r="BB61" s="97"/>
-      <c r="BC61" s="97"/>
-      <c r="BD61" s="97"/>
-      <c r="BE61" s="97"/>
-      <c r="BF61" s="97"/>
-      <c r="BG61" s="97"/>
-      <c r="BH61" s="97"/>
-      <c r="BI61" s="97"/>
-      <c r="BJ61" s="97" t="s">
+      <c r="AY61" s="91"/>
+      <c r="AZ61" s="91"/>
+      <c r="BA61" s="91"/>
+      <c r="BB61" s="91"/>
+      <c r="BC61" s="91"/>
+      <c r="BD61" s="91"/>
+      <c r="BE61" s="91"/>
+      <c r="BF61" s="91"/>
+      <c r="BG61" s="91"/>
+      <c r="BH61" s="91"/>
+      <c r="BI61" s="91"/>
+      <c r="BJ61" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="BK61" s="97"/>
-      <c r="BL61" s="97"/>
-      <c r="BM61" s="97"/>
-      <c r="BN61" s="97"/>
-      <c r="BO61" s="97"/>
-      <c r="BP61" s="97" t="s">
+      <c r="BK61" s="91"/>
+      <c r="BL61" s="91"/>
+      <c r="BM61" s="91"/>
+      <c r="BN61" s="91"/>
+      <c r="BO61" s="91"/>
+      <c r="BP61" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="BQ61" s="97"/>
-      <c r="BR61" s="97"/>
-      <c r="BS61" s="97"/>
-      <c r="BT61" s="97"/>
-      <c r="BU61" s="97"/>
-      <c r="BV61" s="97"/>
-      <c r="BW61" s="97"/>
-      <c r="BX61" s="97"/>
-      <c r="BY61" s="97"/>
-      <c r="BZ61" s="97"/>
-      <c r="CA61" s="97"/>
-      <c r="CB61" s="97"/>
-      <c r="CC61" s="97"/>
-      <c r="CD61" s="97"/>
+      <c r="BQ61" s="91"/>
+      <c r="BR61" s="91"/>
+      <c r="BS61" s="91"/>
+      <c r="BT61" s="91"/>
+      <c r="BU61" s="91"/>
+      <c r="BV61" s="91"/>
+      <c r="BW61" s="91"/>
+      <c r="BX61" s="91"/>
+      <c r="BY61" s="91"/>
+      <c r="BZ61" s="91"/>
+      <c r="CA61" s="91"/>
+      <c r="CB61" s="91"/>
+      <c r="CC61" s="91"/>
+      <c r="CD61" s="91"/>
     </row>
     <row r="62" spans="1:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="69" t="s">
@@ -30460,244 +34395,244 @@
     </row>
     <row r="71" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="72" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="I72" s="91" t="s">
+      <c r="I72" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92"/>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="92"/>
-      <c r="U72" s="92"/>
-      <c r="V72" s="92"/>
-      <c r="W72" s="92"/>
-      <c r="X72" s="92"/>
-      <c r="Y72" s="92"/>
-      <c r="Z72" s="92"/>
-      <c r="AA72" s="92"/>
-      <c r="AB72" s="92"/>
-      <c r="AC72" s="92"/>
-      <c r="AD72" s="92"/>
-      <c r="AE72" s="92"/>
-      <c r="AF72" s="92"/>
-      <c r="AG72" s="92"/>
-      <c r="AH72" s="92"/>
-      <c r="AI72" s="92"/>
-      <c r="AJ72" s="92"/>
-      <c r="AK72" s="92"/>
-      <c r="AL72" s="92"/>
-      <c r="AM72" s="92"/>
-      <c r="AN72" s="92"/>
-      <c r="AO72" s="92"/>
-      <c r="AP72" s="92"/>
-      <c r="AQ72" s="92"/>
-      <c r="AR72" s="92"/>
-      <c r="AS72" s="92"/>
-      <c r="AT72" s="92"/>
-      <c r="AU72" s="92"/>
-      <c r="AV72" s="92"/>
-      <c r="AW72" s="92"/>
-      <c r="AX72" s="92"/>
-      <c r="AY72" s="92"/>
-      <c r="AZ72" s="92"/>
-      <c r="BA72" s="92"/>
-      <c r="BB72" s="92"/>
-      <c r="BC72" s="92"/>
-      <c r="BD72" s="92"/>
-      <c r="BE72" s="92"/>
-      <c r="BF72" s="92"/>
-      <c r="BG72" s="92"/>
-      <c r="BH72" s="92"/>
-      <c r="BI72" s="92"/>
-      <c r="BJ72" s="92"/>
-      <c r="BK72" s="92"/>
-      <c r="BL72" s="92"/>
-      <c r="BM72" s="92"/>
-      <c r="BN72" s="92"/>
-      <c r="BO72" s="92"/>
-      <c r="BP72" s="92"/>
-      <c r="BQ72" s="92"/>
-      <c r="BR72" s="92"/>
-      <c r="BS72" s="92"/>
-      <c r="BT72" s="92"/>
-      <c r="BU72" s="92"/>
-      <c r="BV72" s="92"/>
-      <c r="BW72" s="92"/>
-      <c r="BX72" s="92"/>
-      <c r="BY72" s="92"/>
-      <c r="BZ72" s="92"/>
-      <c r="CA72" s="92"/>
-      <c r="CB72" s="92"/>
-      <c r="CC72" s="92"/>
-      <c r="CD72" s="93"/>
+      <c r="J72" s="96"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="96"/>
+      <c r="M72" s="96"/>
+      <c r="N72" s="96"/>
+      <c r="O72" s="96"/>
+      <c r="P72" s="96"/>
+      <c r="Q72" s="96"/>
+      <c r="R72" s="96"/>
+      <c r="S72" s="96"/>
+      <c r="T72" s="96"/>
+      <c r="U72" s="96"/>
+      <c r="V72" s="96"/>
+      <c r="W72" s="96"/>
+      <c r="X72" s="96"/>
+      <c r="Y72" s="96"/>
+      <c r="Z72" s="96"/>
+      <c r="AA72" s="96"/>
+      <c r="AB72" s="96"/>
+      <c r="AC72" s="96"/>
+      <c r="AD72" s="96"/>
+      <c r="AE72" s="96"/>
+      <c r="AF72" s="96"/>
+      <c r="AG72" s="96"/>
+      <c r="AH72" s="96"/>
+      <c r="AI72" s="96"/>
+      <c r="AJ72" s="96"/>
+      <c r="AK72" s="96"/>
+      <c r="AL72" s="96"/>
+      <c r="AM72" s="96"/>
+      <c r="AN72" s="96"/>
+      <c r="AO72" s="96"/>
+      <c r="AP72" s="96"/>
+      <c r="AQ72" s="96"/>
+      <c r="AR72" s="96"/>
+      <c r="AS72" s="96"/>
+      <c r="AT72" s="96"/>
+      <c r="AU72" s="96"/>
+      <c r="AV72" s="96"/>
+      <c r="AW72" s="96"/>
+      <c r="AX72" s="96"/>
+      <c r="AY72" s="96"/>
+      <c r="AZ72" s="96"/>
+      <c r="BA72" s="96"/>
+      <c r="BB72" s="96"/>
+      <c r="BC72" s="96"/>
+      <c r="BD72" s="96"/>
+      <c r="BE72" s="96"/>
+      <c r="BF72" s="96"/>
+      <c r="BG72" s="96"/>
+      <c r="BH72" s="96"/>
+      <c r="BI72" s="96"/>
+      <c r="BJ72" s="96"/>
+      <c r="BK72" s="96"/>
+      <c r="BL72" s="96"/>
+      <c r="BM72" s="96"/>
+      <c r="BN72" s="96"/>
+      <c r="BO72" s="96"/>
+      <c r="BP72" s="96"/>
+      <c r="BQ72" s="96"/>
+      <c r="BR72" s="96"/>
+      <c r="BS72" s="96"/>
+      <c r="BT72" s="96"/>
+      <c r="BU72" s="96"/>
+      <c r="BV72" s="96"/>
+      <c r="BW72" s="96"/>
+      <c r="BX72" s="96"/>
+      <c r="BY72" s="96"/>
+      <c r="BZ72" s="96"/>
+      <c r="CA72" s="96"/>
+      <c r="CB72" s="96"/>
+      <c r="CC72" s="96"/>
+      <c r="CD72" s="97"/>
     </row>
     <row r="73" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I73" s="94"/>
-      <c r="J73" s="95"/>
-      <c r="K73" s="95"/>
-      <c r="L73" s="95"/>
-      <c r="M73" s="95"/>
-      <c r="N73" s="95"/>
-      <c r="O73" s="95"/>
-      <c r="P73" s="95"/>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95"/>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95"/>
-      <c r="U73" s="95"/>
-      <c r="V73" s="95"/>
-      <c r="W73" s="95"/>
-      <c r="X73" s="95"/>
-      <c r="Y73" s="95"/>
-      <c r="Z73" s="95"/>
-      <c r="AA73" s="95"/>
-      <c r="AB73" s="95"/>
-      <c r="AC73" s="95"/>
-      <c r="AD73" s="95"/>
-      <c r="AE73" s="95"/>
-      <c r="AF73" s="95"/>
-      <c r="AG73" s="95"/>
-      <c r="AH73" s="95"/>
-      <c r="AI73" s="95"/>
-      <c r="AJ73" s="95"/>
-      <c r="AK73" s="95"/>
-      <c r="AL73" s="95"/>
-      <c r="AM73" s="95"/>
-      <c r="AN73" s="95"/>
-      <c r="AO73" s="95"/>
-      <c r="AP73" s="95"/>
-      <c r="AQ73" s="95"/>
-      <c r="AR73" s="95"/>
-      <c r="AS73" s="95"/>
-      <c r="AT73" s="95"/>
-      <c r="AU73" s="95"/>
-      <c r="AV73" s="95"/>
-      <c r="AW73" s="95"/>
-      <c r="AX73" s="95"/>
-      <c r="AY73" s="95"/>
-      <c r="AZ73" s="95"/>
-      <c r="BA73" s="95"/>
-      <c r="BB73" s="95"/>
-      <c r="BC73" s="95"/>
-      <c r="BD73" s="95"/>
-      <c r="BE73" s="95"/>
-      <c r="BF73" s="95"/>
-      <c r="BG73" s="95"/>
-      <c r="BH73" s="95"/>
-      <c r="BI73" s="95"/>
-      <c r="BJ73" s="95"/>
-      <c r="BK73" s="95"/>
-      <c r="BL73" s="95"/>
-      <c r="BM73" s="95"/>
-      <c r="BN73" s="95"/>
-      <c r="BO73" s="95"/>
-      <c r="BP73" s="95"/>
-      <c r="BQ73" s="95"/>
-      <c r="BR73" s="95"/>
-      <c r="BS73" s="95"/>
-      <c r="BT73" s="95"/>
-      <c r="BU73" s="95"/>
-      <c r="BV73" s="95"/>
-      <c r="BW73" s="95"/>
-      <c r="BX73" s="95"/>
-      <c r="BY73" s="95"/>
-      <c r="BZ73" s="95"/>
-      <c r="CA73" s="95"/>
-      <c r="CB73" s="95"/>
-      <c r="CC73" s="95"/>
-      <c r="CD73" s="96"/>
+      <c r="I73" s="98"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="99"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="99"/>
+      <c r="R73" s="99"/>
+      <c r="S73" s="99"/>
+      <c r="T73" s="99"/>
+      <c r="U73" s="99"/>
+      <c r="V73" s="99"/>
+      <c r="W73" s="99"/>
+      <c r="X73" s="99"/>
+      <c r="Y73" s="99"/>
+      <c r="Z73" s="99"/>
+      <c r="AA73" s="99"/>
+      <c r="AB73" s="99"/>
+      <c r="AC73" s="99"/>
+      <c r="AD73" s="99"/>
+      <c r="AE73" s="99"/>
+      <c r="AF73" s="99"/>
+      <c r="AG73" s="99"/>
+      <c r="AH73" s="99"/>
+      <c r="AI73" s="99"/>
+      <c r="AJ73" s="99"/>
+      <c r="AK73" s="99"/>
+      <c r="AL73" s="99"/>
+      <c r="AM73" s="99"/>
+      <c r="AN73" s="99"/>
+      <c r="AO73" s="99"/>
+      <c r="AP73" s="99"/>
+      <c r="AQ73" s="99"/>
+      <c r="AR73" s="99"/>
+      <c r="AS73" s="99"/>
+      <c r="AT73" s="99"/>
+      <c r="AU73" s="99"/>
+      <c r="AV73" s="99"/>
+      <c r="AW73" s="99"/>
+      <c r="AX73" s="99"/>
+      <c r="AY73" s="99"/>
+      <c r="AZ73" s="99"/>
+      <c r="BA73" s="99"/>
+      <c r="BB73" s="99"/>
+      <c r="BC73" s="99"/>
+      <c r="BD73" s="99"/>
+      <c r="BE73" s="99"/>
+      <c r="BF73" s="99"/>
+      <c r="BG73" s="99"/>
+      <c r="BH73" s="99"/>
+      <c r="BI73" s="99"/>
+      <c r="BJ73" s="99"/>
+      <c r="BK73" s="99"/>
+      <c r="BL73" s="99"/>
+      <c r="BM73" s="99"/>
+      <c r="BN73" s="99"/>
+      <c r="BO73" s="99"/>
+      <c r="BP73" s="99"/>
+      <c r="BQ73" s="99"/>
+      <c r="BR73" s="99"/>
+      <c r="BS73" s="99"/>
+      <c r="BT73" s="99"/>
+      <c r="BU73" s="99"/>
+      <c r="BV73" s="99"/>
+      <c r="BW73" s="99"/>
+      <c r="BX73" s="99"/>
+      <c r="BY73" s="99"/>
+      <c r="BZ73" s="99"/>
+      <c r="CA73" s="99"/>
+      <c r="CB73" s="99"/>
+      <c r="CC73" s="99"/>
+      <c r="CD73" s="100"/>
     </row>
     <row r="74" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I74" s="97" t="s">
+      <c r="I74" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
-      <c r="M74" s="97"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="97"/>
-      <c r="P74" s="97"/>
-      <c r="Q74" s="97"/>
-      <c r="R74" s="97"/>
-      <c r="S74" s="97"/>
-      <c r="T74" s="97"/>
-      <c r="U74" s="97"/>
-      <c r="V74" s="97" t="s">
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="91"/>
+      <c r="U74" s="91"/>
+      <c r="V74" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="W74" s="97"/>
-      <c r="X74" s="97"/>
-      <c r="Y74" s="97"/>
-      <c r="Z74" s="97"/>
-      <c r="AA74" s="97"/>
-      <c r="AB74" s="97"/>
-      <c r="AC74" s="97"/>
-      <c r="AD74" s="97"/>
-      <c r="AE74" s="97"/>
-      <c r="AF74" s="97"/>
-      <c r="AG74" s="97"/>
-      <c r="AH74" s="97"/>
-      <c r="AI74" s="97"/>
-      <c r="AJ74" s="97"/>
-      <c r="AK74" s="97"/>
-      <c r="AL74" s="97"/>
-      <c r="AM74" s="97"/>
-      <c r="AN74" s="97"/>
-      <c r="AO74" s="97"/>
-      <c r="AP74" s="97"/>
-      <c r="AQ74" s="97"/>
-      <c r="AR74" s="97"/>
-      <c r="AS74" s="97"/>
-      <c r="AT74" s="97"/>
-      <c r="AU74" s="97"/>
-      <c r="AV74" s="97"/>
-      <c r="AW74" s="97"/>
-      <c r="AX74" s="97" t="s">
+      <c r="W74" s="91"/>
+      <c r="X74" s="91"/>
+      <c r="Y74" s="91"/>
+      <c r="Z74" s="91"/>
+      <c r="AA74" s="91"/>
+      <c r="AB74" s="91"/>
+      <c r="AC74" s="91"/>
+      <c r="AD74" s="91"/>
+      <c r="AE74" s="91"/>
+      <c r="AF74" s="91"/>
+      <c r="AG74" s="91"/>
+      <c r="AH74" s="91"/>
+      <c r="AI74" s="91"/>
+      <c r="AJ74" s="91"/>
+      <c r="AK74" s="91"/>
+      <c r="AL74" s="91"/>
+      <c r="AM74" s="91"/>
+      <c r="AN74" s="91"/>
+      <c r="AO74" s="91"/>
+      <c r="AP74" s="91"/>
+      <c r="AQ74" s="91"/>
+      <c r="AR74" s="91"/>
+      <c r="AS74" s="91"/>
+      <c r="AT74" s="91"/>
+      <c r="AU74" s="91"/>
+      <c r="AV74" s="91"/>
+      <c r="AW74" s="91"/>
+      <c r="AX74" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="AY74" s="97"/>
-      <c r="AZ74" s="97"/>
-      <c r="BA74" s="97"/>
-      <c r="BB74" s="97"/>
-      <c r="BC74" s="97"/>
-      <c r="BD74" s="97"/>
-      <c r="BE74" s="97"/>
-      <c r="BF74" s="97"/>
-      <c r="BG74" s="97"/>
-      <c r="BH74" s="97"/>
-      <c r="BI74" s="97"/>
-      <c r="BJ74" s="97" t="s">
+      <c r="AY74" s="91"/>
+      <c r="AZ74" s="91"/>
+      <c r="BA74" s="91"/>
+      <c r="BB74" s="91"/>
+      <c r="BC74" s="91"/>
+      <c r="BD74" s="91"/>
+      <c r="BE74" s="91"/>
+      <c r="BF74" s="91"/>
+      <c r="BG74" s="91"/>
+      <c r="BH74" s="91"/>
+      <c r="BI74" s="91"/>
+      <c r="BJ74" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="BK74" s="97"/>
-      <c r="BL74" s="97"/>
-      <c r="BM74" s="97"/>
-      <c r="BN74" s="97"/>
-      <c r="BO74" s="97"/>
-      <c r="BP74" s="97" t="s">
+      <c r="BK74" s="91"/>
+      <c r="BL74" s="91"/>
+      <c r="BM74" s="91"/>
+      <c r="BN74" s="91"/>
+      <c r="BO74" s="91"/>
+      <c r="BP74" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="BQ74" s="97"/>
-      <c r="BR74" s="97"/>
-      <c r="BS74" s="97"/>
-      <c r="BT74" s="97"/>
-      <c r="BU74" s="97"/>
-      <c r="BV74" s="97"/>
-      <c r="BW74" s="97"/>
-      <c r="BX74" s="97"/>
-      <c r="BY74" s="97"/>
-      <c r="BZ74" s="97"/>
-      <c r="CA74" s="97"/>
-      <c r="CB74" s="97"/>
-      <c r="CC74" s="97"/>
-      <c r="CD74" s="97"/>
+      <c r="BQ74" s="91"/>
+      <c r="BR74" s="91"/>
+      <c r="BS74" s="91"/>
+      <c r="BT74" s="91"/>
+      <c r="BU74" s="91"/>
+      <c r="BV74" s="91"/>
+      <c r="BW74" s="91"/>
+      <c r="BX74" s="91"/>
+      <c r="BY74" s="91"/>
+      <c r="BZ74" s="91"/>
+      <c r="CA74" s="91"/>
+      <c r="CB74" s="91"/>
+      <c r="CC74" s="91"/>
+      <c r="CD74" s="91"/>
     </row>
     <row r="75" spans="9:82" ht="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I75" s="69" t="s">
@@ -31279,8 +35214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCAA047-5D23-4546-A9DC-CF28AC8EC082}">
   <dimension ref="A1:FC259"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.08203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -32009,38 +35944,38 @@
       <c r="E16" s="43"/>
       <c r="F16" s="43"/>
       <c r="G16" s="44"/>
-      <c r="I16" s="98" t="s">
+      <c r="I16" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-      <c r="P16" s="98" t="s">
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="99"/>
-      <c r="S16" s="99"/>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="99"/>
-      <c r="X16" s="99"/>
-      <c r="Y16" s="99"/>
-      <c r="Z16" s="99"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="99"/>
-      <c r="AC16" s="99"/>
-      <c r="AD16" s="99"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="99"/>
-      <c r="AH16" s="99"/>
-      <c r="AI16" s="99"/>
-      <c r="AJ16" s="99"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="93"/>
+      <c r="AF16" s="93"/>
+      <c r="AG16" s="93"/>
+      <c r="AH16" s="93"/>
+      <c r="AI16" s="93"/>
+      <c r="AJ16" s="93"/>
       <c r="AK16" s="116" t="s">
         <v>94</v>
       </c>
@@ -34798,38 +38733,38 @@
       <c r="CD51" s="115"/>
     </row>
     <row r="52" spans="1:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I52" s="98" t="s">
+      <c r="I52" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="99"/>
-      <c r="M52" s="99"/>
-      <c r="N52" s="99"/>
-      <c r="O52" s="99"/>
-      <c r="P52" s="98" t="s">
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
+      <c r="L52" s="93"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="99"/>
-      <c r="S52" s="99"/>
-      <c r="T52" s="99"/>
-      <c r="U52" s="99"/>
-      <c r="V52" s="99"/>
-      <c r="W52" s="99"/>
-      <c r="X52" s="99"/>
-      <c r="Y52" s="99"/>
-      <c r="Z52" s="99"/>
-      <c r="AA52" s="99"/>
-      <c r="AB52" s="99"/>
-      <c r="AC52" s="99"/>
-      <c r="AD52" s="99"/>
-      <c r="AE52" s="99"/>
-      <c r="AF52" s="99"/>
-      <c r="AG52" s="99"/>
-      <c r="AH52" s="99"/>
-      <c r="AI52" s="99"/>
-      <c r="AJ52" s="99"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
+      <c r="V52" s="93"/>
+      <c r="W52" s="93"/>
+      <c r="X52" s="93"/>
+      <c r="Y52" s="93"/>
+      <c r="Z52" s="93"/>
+      <c r="AA52" s="93"/>
+      <c r="AB52" s="93"/>
+      <c r="AC52" s="93"/>
+      <c r="AD52" s="93"/>
+      <c r="AE52" s="93"/>
+      <c r="AF52" s="93"/>
+      <c r="AG52" s="93"/>
+      <c r="AH52" s="93"/>
+      <c r="AI52" s="93"/>
+      <c r="AJ52" s="93"/>
       <c r="AK52" s="116" t="s">
         <v>120</v>
       </c>
@@ -37412,38 +41347,38 @@
       <c r="DG87" s="2"/>
     </row>
     <row r="88" spans="9:111" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I88" s="98" t="s">
+      <c r="I88" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J88" s="99"/>
-      <c r="K88" s="99"/>
-      <c r="L88" s="99"/>
-      <c r="M88" s="99"/>
-      <c r="N88" s="99"/>
-      <c r="O88" s="99"/>
-      <c r="P88" s="98" t="s">
+      <c r="J88" s="93"/>
+      <c r="K88" s="93"/>
+      <c r="L88" s="93"/>
+      <c r="M88" s="93"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q88" s="99"/>
-      <c r="R88" s="99"/>
-      <c r="S88" s="99"/>
-      <c r="T88" s="99"/>
-      <c r="U88" s="99"/>
-      <c r="V88" s="99"/>
-      <c r="W88" s="99"/>
-      <c r="X88" s="99"/>
-      <c r="Y88" s="99"/>
-      <c r="Z88" s="99"/>
-      <c r="AA88" s="99"/>
-      <c r="AB88" s="99"/>
-      <c r="AC88" s="99"/>
-      <c r="AD88" s="99"/>
-      <c r="AE88" s="99"/>
-      <c r="AF88" s="99"/>
-      <c r="AG88" s="99"/>
-      <c r="AH88" s="99"/>
-      <c r="AI88" s="99"/>
-      <c r="AJ88" s="99"/>
+      <c r="Q88" s="93"/>
+      <c r="R88" s="93"/>
+      <c r="S88" s="93"/>
+      <c r="T88" s="93"/>
+      <c r="U88" s="93"/>
+      <c r="V88" s="93"/>
+      <c r="W88" s="93"/>
+      <c r="X88" s="93"/>
+      <c r="Y88" s="93"/>
+      <c r="Z88" s="93"/>
+      <c r="AA88" s="93"/>
+      <c r="AB88" s="93"/>
+      <c r="AC88" s="93"/>
+      <c r="AD88" s="93"/>
+      <c r="AE88" s="93"/>
+      <c r="AF88" s="93"/>
+      <c r="AG88" s="93"/>
+      <c r="AH88" s="93"/>
+      <c r="AI88" s="93"/>
+      <c r="AJ88" s="93"/>
       <c r="AK88" s="116" t="s">
         <v>138</v>
       </c>
@@ -40020,38 +43955,38 @@
       <c r="CD123" s="115"/>
     </row>
     <row r="124" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I124" s="98" t="s">
+      <c r="I124" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J124" s="99"/>
-      <c r="K124" s="99"/>
-      <c r="L124" s="99"/>
-      <c r="M124" s="99"/>
-      <c r="N124" s="99"/>
-      <c r="O124" s="99"/>
-      <c r="P124" s="98" t="s">
+      <c r="J124" s="93"/>
+      <c r="K124" s="93"/>
+      <c r="L124" s="93"/>
+      <c r="M124" s="93"/>
+      <c r="N124" s="93"/>
+      <c r="O124" s="93"/>
+      <c r="P124" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q124" s="99"/>
-      <c r="R124" s="99"/>
-      <c r="S124" s="99"/>
-      <c r="T124" s="99"/>
-      <c r="U124" s="99"/>
-      <c r="V124" s="99"/>
-      <c r="W124" s="99"/>
-      <c r="X124" s="99"/>
-      <c r="Y124" s="99"/>
-      <c r="Z124" s="99"/>
-      <c r="AA124" s="99"/>
-      <c r="AB124" s="99"/>
-      <c r="AC124" s="99"/>
-      <c r="AD124" s="99"/>
-      <c r="AE124" s="99"/>
-      <c r="AF124" s="99"/>
-      <c r="AG124" s="99"/>
-      <c r="AH124" s="99"/>
-      <c r="AI124" s="99"/>
-      <c r="AJ124" s="99"/>
+      <c r="Q124" s="93"/>
+      <c r="R124" s="93"/>
+      <c r="S124" s="93"/>
+      <c r="T124" s="93"/>
+      <c r="U124" s="93"/>
+      <c r="V124" s="93"/>
+      <c r="W124" s="93"/>
+      <c r="X124" s="93"/>
+      <c r="Y124" s="93"/>
+      <c r="Z124" s="93"/>
+      <c r="AA124" s="93"/>
+      <c r="AB124" s="93"/>
+      <c r="AC124" s="93"/>
+      <c r="AD124" s="93"/>
+      <c r="AE124" s="93"/>
+      <c r="AF124" s="93"/>
+      <c r="AG124" s="93"/>
+      <c r="AH124" s="93"/>
+      <c r="AI124" s="93"/>
+      <c r="AJ124" s="93"/>
       <c r="AK124" s="116" t="s">
         <v>139</v>
       </c>
@@ -42569,38 +46504,38 @@
       <c r="CD159" s="115"/>
     </row>
     <row r="160" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I160" s="98" t="s">
+      <c r="I160" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J160" s="99"/>
-      <c r="K160" s="99"/>
-      <c r="L160" s="99"/>
-      <c r="M160" s="99"/>
-      <c r="N160" s="99"/>
-      <c r="O160" s="99"/>
-      <c r="P160" s="98" t="s">
+      <c r="J160" s="93"/>
+      <c r="K160" s="93"/>
+      <c r="L160" s="93"/>
+      <c r="M160" s="93"/>
+      <c r="N160" s="93"/>
+      <c r="O160" s="93"/>
+      <c r="P160" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q160" s="99"/>
-      <c r="R160" s="99"/>
-      <c r="S160" s="99"/>
-      <c r="T160" s="99"/>
-      <c r="U160" s="99"/>
-      <c r="V160" s="99"/>
-      <c r="W160" s="99"/>
-      <c r="X160" s="99"/>
-      <c r="Y160" s="99"/>
-      <c r="Z160" s="99"/>
-      <c r="AA160" s="99"/>
-      <c r="AB160" s="99"/>
-      <c r="AC160" s="99"/>
-      <c r="AD160" s="99"/>
-      <c r="AE160" s="99"/>
-      <c r="AF160" s="99"/>
-      <c r="AG160" s="99"/>
-      <c r="AH160" s="99"/>
-      <c r="AI160" s="99"/>
-      <c r="AJ160" s="99"/>
+      <c r="Q160" s="93"/>
+      <c r="R160" s="93"/>
+      <c r="S160" s="93"/>
+      <c r="T160" s="93"/>
+      <c r="U160" s="93"/>
+      <c r="V160" s="93"/>
+      <c r="W160" s="93"/>
+      <c r="X160" s="93"/>
+      <c r="Y160" s="93"/>
+      <c r="Z160" s="93"/>
+      <c r="AA160" s="93"/>
+      <c r="AB160" s="93"/>
+      <c r="AC160" s="93"/>
+      <c r="AD160" s="93"/>
+      <c r="AE160" s="93"/>
+      <c r="AF160" s="93"/>
+      <c r="AG160" s="93"/>
+      <c r="AH160" s="93"/>
+      <c r="AI160" s="93"/>
+      <c r="AJ160" s="93"/>
       <c r="AK160" s="116" t="s">
         <v>140</v>
       </c>
@@ -45120,38 +49055,38 @@
       <c r="CD195" s="115"/>
     </row>
     <row r="196" spans="9:82" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I196" s="98" t="s">
+      <c r="I196" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J196" s="99"/>
-      <c r="K196" s="99"/>
-      <c r="L196" s="99"/>
-      <c r="M196" s="99"/>
-      <c r="N196" s="99"/>
-      <c r="O196" s="99"/>
-      <c r="P196" s="98" t="s">
+      <c r="J196" s="93"/>
+      <c r="K196" s="93"/>
+      <c r="L196" s="93"/>
+      <c r="M196" s="93"/>
+      <c r="N196" s="93"/>
+      <c r="O196" s="93"/>
+      <c r="P196" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q196" s="99"/>
-      <c r="R196" s="99"/>
-      <c r="S196" s="99"/>
-      <c r="T196" s="99"/>
-      <c r="U196" s="99"/>
-      <c r="V196" s="99"/>
-      <c r="W196" s="99"/>
-      <c r="X196" s="99"/>
-      <c r="Y196" s="99"/>
-      <c r="Z196" s="99"/>
-      <c r="AA196" s="99"/>
-      <c r="AB196" s="99"/>
-      <c r="AC196" s="99"/>
-      <c r="AD196" s="99"/>
-      <c r="AE196" s="99"/>
-      <c r="AF196" s="99"/>
-      <c r="AG196" s="99"/>
-      <c r="AH196" s="99"/>
-      <c r="AI196" s="99"/>
-      <c r="AJ196" s="99"/>
+      <c r="Q196" s="93"/>
+      <c r="R196" s="93"/>
+      <c r="S196" s="93"/>
+      <c r="T196" s="93"/>
+      <c r="U196" s="93"/>
+      <c r="V196" s="93"/>
+      <c r="W196" s="93"/>
+      <c r="X196" s="93"/>
+      <c r="Y196" s="93"/>
+      <c r="Z196" s="93"/>
+      <c r="AA196" s="93"/>
+      <c r="AB196" s="93"/>
+      <c r="AC196" s="93"/>
+      <c r="AD196" s="93"/>
+      <c r="AE196" s="93"/>
+      <c r="AF196" s="93"/>
+      <c r="AG196" s="93"/>
+      <c r="AH196" s="93"/>
+      <c r="AI196" s="93"/>
+      <c r="AJ196" s="93"/>
       <c r="AK196" s="116" t="s">
         <v>141</v>
       </c>
@@ -48039,38 +51974,38 @@
       <c r="FC231" s="5"/>
     </row>
     <row r="232" spans="9:159" ht="13.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I232" s="98" t="s">
+      <c r="I232" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="J232" s="99"/>
-      <c r="K232" s="99"/>
-      <c r="L232" s="99"/>
-      <c r="M232" s="99"/>
-      <c r="N232" s="99"/>
-      <c r="O232" s="99"/>
-      <c r="P232" s="98" t="s">
+      <c r="J232" s="93"/>
+      <c r="K232" s="93"/>
+      <c r="L232" s="93"/>
+      <c r="M232" s="93"/>
+      <c r="N232" s="93"/>
+      <c r="O232" s="93"/>
+      <c r="P232" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="Q232" s="99"/>
-      <c r="R232" s="99"/>
-      <c r="S232" s="99"/>
-      <c r="T232" s="99"/>
-      <c r="U232" s="99"/>
-      <c r="V232" s="99"/>
-      <c r="W232" s="99"/>
-      <c r="X232" s="99"/>
-      <c r="Y232" s="99"/>
-      <c r="Z232" s="99"/>
-      <c r="AA232" s="99"/>
-      <c r="AB232" s="99"/>
-      <c r="AC232" s="99"/>
-      <c r="AD232" s="99"/>
-      <c r="AE232" s="99"/>
-      <c r="AF232" s="99"/>
-      <c r="AG232" s="99"/>
-      <c r="AH232" s="99"/>
-      <c r="AI232" s="99"/>
-      <c r="AJ232" s="99"/>
+      <c r="Q232" s="93"/>
+      <c r="R232" s="93"/>
+      <c r="S232" s="93"/>
+      <c r="T232" s="93"/>
+      <c r="U232" s="93"/>
+      <c r="V232" s="93"/>
+      <c r="W232" s="93"/>
+      <c r="X232" s="93"/>
+      <c r="Y232" s="93"/>
+      <c r="Z232" s="93"/>
+      <c r="AA232" s="93"/>
+      <c r="AB232" s="93"/>
+      <c r="AC232" s="93"/>
+      <c r="AD232" s="93"/>
+      <c r="AE232" s="93"/>
+      <c r="AF232" s="93"/>
+      <c r="AG232" s="93"/>
+      <c r="AH232" s="93"/>
+      <c r="AI232" s="93"/>
+      <c r="AJ232" s="93"/>
       <c r="AK232" s="116" t="s">
         <v>142</v>
       </c>
